--- a/Code/Results/Cases/Case_2_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9678307273075296</v>
+        <v>0.9678307273075297</v>
       </c>
       <c r="D2">
-        <v>0.99280212654939</v>
+        <v>0.9928021265493899</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9428937306674469</v>
+        <v>0.9428937306674468</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9552104631797268</v>
+        <v>0.9552104631797269</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9776055963302278</v>
+        <v>0.9776055963302274</v>
       </c>
       <c r="D3">
         <v>1.000317589831259</v>
@@ -468,7 +468,7 @@
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9558030702638484</v>
+        <v>0.9558030702638478</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,7 +477,7 @@
         <v>1.036171327138615</v>
       </c>
       <c r="J3">
-        <v>0.998725947963808</v>
+        <v>0.9987259479638073</v>
       </c>
       <c r="K3">
         <v>1.010946408648438</v>
@@ -486,7 +486,7 @@
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9670345381859838</v>
+        <v>0.9670345381859833</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9836498348451204</v>
+        <v>0.983649834845119</v>
       </c>
       <c r="D4">
-        <v>1.004966429469854</v>
+        <v>1.004966429469853</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9637720350693355</v>
+        <v>0.9637720350693335</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038194922866283</v>
+        <v>1.038194922866282</v>
       </c>
       <c r="J4">
-        <v>1.003481232727535</v>
+        <v>1.003481232727534</v>
       </c>
       <c r="K4">
-        <v>1.015005281358463</v>
+        <v>1.015005281358462</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9743283015714375</v>
+        <v>0.9743283015714355</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9861291408823588</v>
+        <v>0.9861291408823594</v>
       </c>
       <c r="D5">
-        <v>1.006873560794601</v>
+        <v>1.006873560794602</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>0.9670384478890951</v>
+        <v>0.9670384478890959</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039020134006068</v>
+        <v>1.039020134006069</v>
       </c>
       <c r="J5">
-        <v>1.0054292076115</v>
+        <v>1.005429207611501</v>
       </c>
       <c r="K5">
-        <v>1.016667192748149</v>
+        <v>1.01666719274815</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>0.9773166084721656</v>
+        <v>0.9773166084721666</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.986541956292017</v>
+        <v>0.9865419562920184</v>
       </c>
       <c r="D6">
-        <v>1.007191113469751</v>
+        <v>1.007191113469752</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>0.9675822003905485</v>
+        <v>0.9675822003905499</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03915724709282</v>
+        <v>1.039157247092821</v>
       </c>
       <c r="J6">
-        <v>1.005753399835122</v>
+        <v>1.005753399835124</v>
       </c>
       <c r="K6">
-        <v>1.016943728478735</v>
+        <v>1.016943728478736</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>0.9778139838665642</v>
+        <v>0.9778139838665656</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9836831991208155</v>
+        <v>0.9836831991208149</v>
       </c>
       <c r="D7">
-        <v>1.004992093351604</v>
+        <v>1.004992093351603</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>0.9638160000561059</v>
+        <v>0.963816000056105</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.038206047203243</v>
       </c>
       <c r="J7">
-        <v>1.00350745721469</v>
+        <v>1.003507457214689</v>
       </c>
       <c r="K7">
         <v>1.01502765794499</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>0.9743685287791647</v>
+        <v>0.9743685287791639</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9711958999081386</v>
+        <v>0.97119589990814</v>
       </c>
       <c r="D8">
-        <v>0.9953889677218384</v>
+        <v>0.9953889677218395</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>0.947341427818837</v>
+        <v>0.9473414278188386</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.034008494655126</v>
       </c>
       <c r="J8">
-        <v>0.9936739706293707</v>
+        <v>0.993673970629372</v>
       </c>
       <c r="K8">
-        <v>1.006631762775674</v>
+        <v>1.006631762775675</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9592853183665696</v>
+        <v>0.9592853183665712</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9467432655532612</v>
+        <v>0.9467432655532608</v>
       </c>
       <c r="D9">
-        <v>0.976609443677629</v>
+        <v>0.9766094436776288</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9149179337982355</v>
+        <v>0.9149179337982352</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.025626535346016</v>
       </c>
       <c r="J9">
-        <v>0.9743277459403725</v>
+        <v>0.9743277459403723</v>
       </c>
       <c r="K9">
-        <v>0.9900937696542941</v>
+        <v>0.9900937696542937</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>0.9295607590001133</v>
+        <v>0.9295607590001128</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9282707487388488</v>
+        <v>0.928270748738852</v>
       </c>
       <c r="D10">
-        <v>0.9624592631344933</v>
+        <v>0.962459263134496</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547168</v>
+        <v>0.9361465105547164</v>
       </c>
       <c r="F10">
-        <v>0.8902168772949886</v>
+        <v>0.8902168772949922</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01918937643829</v>
+        <v>1.019189376438292</v>
       </c>
       <c r="J10">
-        <v>0.9596506194625767</v>
+        <v>0.9596506194625798</v>
       </c>
       <c r="K10">
-        <v>0.977541103192025</v>
+        <v>0.9775411031920277</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689269</v>
+        <v>0.9517730114689266</v>
       </c>
       <c r="M10">
-        <v>0.9068981244591897</v>
+        <v>0.9068981244591932</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -766,13 +766,13 @@
         <v>0.9195948360929618</v>
       </c>
       <c r="D11">
-        <v>0.955827645765514</v>
+        <v>0.9558276457655143</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.8785355493541676</v>
+        <v>0.8785355493541677</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -784,13 +784,13 @@
         <v>0.9527422940319439</v>
       </c>
       <c r="K11">
-        <v>0.9716336008580302</v>
+        <v>0.9716336008580303</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416574</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>0.8961797734309507</v>
+        <v>0.8961797734309509</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9162517352985241</v>
+        <v>0.9162517352985229</v>
       </c>
       <c r="D12">
-        <v>0.95327500302039</v>
+        <v>0.9532750030203891</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.874018682943014</v>
+        <v>0.8740186829430131</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.014965829652541</v>
       </c>
       <c r="J12">
-        <v>0.9500780124602201</v>
+        <v>0.9500780124602189</v>
       </c>
       <c r="K12">
-        <v>0.9693556818293242</v>
+        <v>0.9693556818293233</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>0.8920355018176428</v>
+        <v>0.8920355018176418</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9169746546105639</v>
+        <v>0.9169746546105659</v>
       </c>
       <c r="D13">
-        <v>0.9538268585404803</v>
+        <v>0.9538268585404819</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368231</v>
+        <v>0.9318723593368228</v>
       </c>
       <c r="F13">
-        <v>0.8749961966048799</v>
+        <v>0.8749961966048819</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015220520369852</v>
+        <v>1.015220520369853</v>
       </c>
       <c r="J13">
-        <v>0.9506542463017223</v>
+        <v>0.9506542463017239</v>
       </c>
       <c r="K13">
-        <v>0.9698483308414744</v>
+        <v>0.969848330841476</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>0.8929323624891407</v>
+        <v>0.8929323624891425</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9193210799745776</v>
+        <v>0.9193210799745767</v>
       </c>
       <c r="D14">
-        <v>0.9556185590442475</v>
+        <v>0.9556185590442471</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.8781660182799561</v>
+        <v>0.878166018279956</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016046642536178</v>
+        <v>1.016046642536179</v>
       </c>
       <c r="J14">
-        <v>0.9525241707263388</v>
+        <v>0.9525241707263382</v>
       </c>
       <c r="K14">
-        <v>0.9714470994839352</v>
+        <v>0.9714470994839346</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764513</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>0.895840717426599</v>
+        <v>0.8958407174265985</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9207501728871996</v>
+        <v>0.9207501728872002</v>
       </c>
       <c r="D15">
-        <v>0.9567101711639744</v>
+        <v>0.9567101711639749</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.8800944294593458</v>
+        <v>0.8800944294593464</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.016549373976103</v>
       </c>
       <c r="J15">
-        <v>0.9536627503310802</v>
+        <v>0.9536627503310808</v>
       </c>
       <c r="K15">
-        <v>0.9724206331617932</v>
+        <v>0.9724206331617935</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.8976101054957885</v>
+        <v>0.8976101054957889</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9288307898961539</v>
+        <v>0.9288307898961535</v>
       </c>
       <c r="D16">
-        <v>0.9628876782899857</v>
+        <v>0.9628876782899853</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017257</v>
       </c>
       <c r="F16">
-        <v>0.8909690135399047</v>
+        <v>0.8909690135399043</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.019385571800918</v>
       </c>
       <c r="J16">
-        <v>0.9600962532479077</v>
+        <v>0.9600962532479076</v>
       </c>
       <c r="K16">
-        <v>0.9779222143397066</v>
+        <v>0.9779222143397063</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9075882655325153</v>
+        <v>0.9075882655325148</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.933706560422937</v>
+        <v>0.9337065604229366</v>
       </c>
       <c r="D17">
-        <v>0.9666191308192095</v>
+        <v>0.9666191308192091</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.8975080206980737</v>
+        <v>0.8975080206980734</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.021091135698403</v>
       </c>
       <c r="J17">
-        <v>0.9639743262090525</v>
+        <v>0.9639743262090521</v>
       </c>
       <c r="K17">
-        <v>0.981238906474291</v>
+        <v>0.9812389064742905</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9135882136503972</v>
+        <v>0.9135882136503967</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9364866724860593</v>
+        <v>0.9364866724860608</v>
       </c>
       <c r="D18">
-        <v>0.9687480302976421</v>
+        <v>0.9687480302976432</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9012294156558054</v>
+        <v>0.9012294156558069</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.022061495918412</v>
       </c>
       <c r="J18">
-        <v>0.9661841903008875</v>
+        <v>0.9661841903008889</v>
       </c>
       <c r="K18">
-        <v>0.9831289371878944</v>
+        <v>0.9831289371878953</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>0.9170027049595997</v>
+        <v>0.917002704959601</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9374242782079555</v>
+        <v>0.9374242782079579</v>
       </c>
       <c r="D19">
-        <v>0.9694662110843648</v>
+        <v>0.969466211084367</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9397594814680091</v>
       </c>
       <c r="F19">
-        <v>0.9024833617374324</v>
+        <v>0.9024833617374352</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.022388387028381</v>
+        <v>1.022388387028382</v>
       </c>
       <c r="J19">
-        <v>0.9669292452113392</v>
+        <v>0.9669292452113415</v>
       </c>
       <c r="K19">
-        <v>0.9837661644117064</v>
+        <v>0.9837661644117086</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>0.9546352493812711</v>
       </c>
       <c r="M19">
-        <v>0.9181532080942945</v>
+        <v>0.9181532080942969</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9331901589425468</v>
+        <v>0.9331901589425471</v>
       </c>
       <c r="D20">
-        <v>0.9662237903734444</v>
+        <v>0.9662237903734449</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="F20">
-        <v>0.8968162231769699</v>
+        <v>0.8968162231769694</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.020910717750503</v>
+        <v>1.020910717750504</v>
       </c>
       <c r="J20">
         <v>0.9635637359057794</v>
       </c>
       <c r="K20">
-        <v>0.9808877442915297</v>
+        <v>0.98088774429153</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9129534565051108</v>
+        <v>0.9129534565051104</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9186336198479267</v>
+        <v>0.9186336198479272</v>
       </c>
       <c r="D21">
-        <v>0.9550935434464165</v>
+        <v>0.9550935434464166</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.8772377813436404</v>
+        <v>0.8772377813436413</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.015804691123891</v>
       </c>
       <c r="J21">
-        <v>0.9519763796979563</v>
+        <v>0.9519763796979569</v>
       </c>
       <c r="K21">
-        <v>0.9709787303006011</v>
+        <v>0.9709787303006013</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>0.9488714019981065</v>
       </c>
       <c r="M21">
-        <v>0.894989037114657</v>
+        <v>0.8949890371146579</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9087705331838878</v>
+        <v>0.9087705331838888</v>
       </c>
       <c r="D22">
-        <v>0.9475685412892277</v>
+        <v>0.9475685412892283</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.8638764092098977</v>
+        <v>0.8638764092098991</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012325806588294</v>
+        <v>1.012325806588293</v>
       </c>
       <c r="J22">
-        <v>0.9441115442634923</v>
+        <v>0.9441115442634932</v>
       </c>
       <c r="K22">
-        <v>0.9642554978146655</v>
+        <v>0.9642554978146665</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>0.8827308615047399</v>
+        <v>0.8827308615047409</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9140743288640117</v>
+        <v>0.9140743288640111</v>
       </c>
       <c r="D23">
-        <v>0.9516132870759484</v>
+        <v>0.9516132870759479</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.8710717953777918</v>
+        <v>0.8710717953777914</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014198249521831</v>
+        <v>1.01419824952183</v>
       </c>
       <c r="J23">
-        <v>0.9483420769789163</v>
+        <v>0.9483420769789157</v>
       </c>
       <c r="K23">
-        <v>0.9678716293173205</v>
+        <v>0.9678716293173198</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.8893318292298346</v>
+        <v>0.889331829229834</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9334236944783577</v>
+        <v>0.9334236944783568</v>
       </c>
       <c r="D24">
-        <v>0.966402573799523</v>
+        <v>0.9664025737995222</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.8971291010088293</v>
+        <v>0.8971291010088284</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.020992315981933</v>
+        <v>1.020992315981932</v>
       </c>
       <c r="J24">
-        <v>0.9637494240543597</v>
+        <v>0.9637494240543587</v>
       </c>
       <c r="K24">
-        <v>0.9810465560891157</v>
+        <v>0.9810465560891148</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442449</v>
+        <v>0.953371659644245</v>
       </c>
       <c r="M24">
-        <v>0.9132405372097965</v>
+        <v>0.9132405372097954</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.953402270920227</v>
+        <v>0.9534022709202282</v>
       </c>
       <c r="D25">
-        <v>0.9817189511692754</v>
+        <v>0.9817189511692767</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717733</v>
+        <v>0.9463835801717732</v>
       </c>
       <c r="F25">
-        <v>0.9237741317634792</v>
+        <v>0.9237741317634806</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02792707518955</v>
+        <v>1.027927075189551</v>
       </c>
       <c r="J25">
-        <v>0.9796064526849949</v>
+        <v>0.9796064526849959</v>
       </c>
       <c r="K25">
-        <v>0.9946078447564283</v>
+        <v>0.9946078447564295</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005611</v>
+        <v>0.959875449400561</v>
       </c>
       <c r="M25">
-        <v>0.9376834775180934</v>
+        <v>0.9376834775180947</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9678307273075297</v>
+        <v>0.9678307273075296</v>
       </c>
       <c r="D2">
-        <v>0.9928021265493899</v>
+        <v>0.99280212654939</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9428937306674468</v>
+        <v>0.9428937306674469</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9552104631797269</v>
+        <v>0.9552104631797268</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9776055963302274</v>
+        <v>0.9776055963302278</v>
       </c>
       <c r="D3">
         <v>1.000317589831259</v>
@@ -468,7 +468,7 @@
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9558030702638478</v>
+        <v>0.9558030702638484</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,7 +477,7 @@
         <v>1.036171327138615</v>
       </c>
       <c r="J3">
-        <v>0.9987259479638073</v>
+        <v>0.998725947963808</v>
       </c>
       <c r="K3">
         <v>1.010946408648438</v>
@@ -486,7 +486,7 @@
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9670345381859833</v>
+        <v>0.9670345381859838</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.983649834845119</v>
+        <v>0.9836498348451204</v>
       </c>
       <c r="D4">
-        <v>1.004966429469853</v>
+        <v>1.004966429469854</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9637720350693335</v>
+        <v>0.9637720350693355</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038194922866282</v>
+        <v>1.038194922866283</v>
       </c>
       <c r="J4">
-        <v>1.003481232727534</v>
+        <v>1.003481232727535</v>
       </c>
       <c r="K4">
-        <v>1.015005281358462</v>
+        <v>1.015005281358463</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9743283015714355</v>
+        <v>0.9743283015714375</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9861291408823594</v>
+        <v>0.9861291408823588</v>
       </c>
       <c r="D5">
-        <v>1.006873560794602</v>
+        <v>1.006873560794601</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9670384478890959</v>
+        <v>0.9670384478890951</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039020134006069</v>
+        <v>1.039020134006068</v>
       </c>
       <c r="J5">
-        <v>1.005429207611501</v>
+        <v>1.0054292076115</v>
       </c>
       <c r="K5">
-        <v>1.01666719274815</v>
+        <v>1.016667192748149</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>0.9773166084721666</v>
+        <v>0.9773166084721656</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9865419562920184</v>
+        <v>0.986541956292017</v>
       </c>
       <c r="D6">
-        <v>1.007191113469752</v>
+        <v>1.007191113469751</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9675822003905499</v>
+        <v>0.9675822003905485</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039157247092821</v>
+        <v>1.03915724709282</v>
       </c>
       <c r="J6">
-        <v>1.005753399835124</v>
+        <v>1.005753399835122</v>
       </c>
       <c r="K6">
-        <v>1.016943728478736</v>
+        <v>1.016943728478735</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>0.9778139838665656</v>
+        <v>0.9778139838665642</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9836831991208149</v>
+        <v>0.9836831991208155</v>
       </c>
       <c r="D7">
-        <v>1.004992093351603</v>
+        <v>1.004992093351604</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.963816000056105</v>
+        <v>0.9638160000561059</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.038206047203243</v>
       </c>
       <c r="J7">
-        <v>1.003507457214689</v>
+        <v>1.00350745721469</v>
       </c>
       <c r="K7">
         <v>1.01502765794499</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>0.9743685287791639</v>
+        <v>0.9743685287791647</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.97119589990814</v>
+        <v>0.9711958999081386</v>
       </c>
       <c r="D8">
-        <v>0.9953889677218395</v>
+        <v>0.9953889677218384</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9473414278188386</v>
+        <v>0.947341427818837</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.034008494655126</v>
       </c>
       <c r="J8">
-        <v>0.993673970629372</v>
+        <v>0.9936739706293707</v>
       </c>
       <c r="K8">
-        <v>1.006631762775675</v>
+        <v>1.006631762775674</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9592853183665712</v>
+        <v>0.9592853183665696</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9467432655532608</v>
+        <v>0.9467432655532612</v>
       </c>
       <c r="D9">
-        <v>0.9766094436776288</v>
+        <v>0.976609443677629</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9149179337982352</v>
+        <v>0.9149179337982355</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.025626535346016</v>
       </c>
       <c r="J9">
-        <v>0.9743277459403723</v>
+        <v>0.9743277459403725</v>
       </c>
       <c r="K9">
-        <v>0.9900937696542937</v>
+        <v>0.9900937696542941</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9295607590001128</v>
+        <v>0.9295607590001133</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.928270748738852</v>
+        <v>0.9282707487388488</v>
       </c>
       <c r="D10">
-        <v>0.962459263134496</v>
+        <v>0.9624592631344933</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547164</v>
+        <v>0.9361465105547168</v>
       </c>
       <c r="F10">
-        <v>0.8902168772949922</v>
+        <v>0.8902168772949886</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019189376438292</v>
+        <v>1.01918937643829</v>
       </c>
       <c r="J10">
-        <v>0.9596506194625798</v>
+        <v>0.9596506194625767</v>
       </c>
       <c r="K10">
-        <v>0.9775411031920277</v>
+        <v>0.977541103192025</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689266</v>
+        <v>0.9517730114689269</v>
       </c>
       <c r="M10">
-        <v>0.9068981244591932</v>
+        <v>0.9068981244591897</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -766,13 +766,13 @@
         <v>0.9195948360929618</v>
       </c>
       <c r="D11">
-        <v>0.9558276457655143</v>
+        <v>0.955827645765514</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.8785355493541677</v>
+        <v>0.8785355493541676</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -784,13 +784,13 @@
         <v>0.9527422940319439</v>
       </c>
       <c r="K11">
-        <v>0.9716336008580303</v>
+        <v>0.9716336008580302</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416574</v>
       </c>
       <c r="M11">
-        <v>0.8961797734309509</v>
+        <v>0.8961797734309507</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9162517352985229</v>
+        <v>0.9162517352985241</v>
       </c>
       <c r="D12">
-        <v>0.9532750030203891</v>
+        <v>0.95327500302039</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.8740186829430131</v>
+        <v>0.874018682943014</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.014965829652541</v>
       </c>
       <c r="J12">
-        <v>0.9500780124602189</v>
+        <v>0.9500780124602201</v>
       </c>
       <c r="K12">
-        <v>0.9693556818293233</v>
+        <v>0.9693556818293242</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.8920355018176418</v>
+        <v>0.8920355018176428</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9169746546105659</v>
+        <v>0.9169746546105639</v>
       </c>
       <c r="D13">
-        <v>0.9538268585404819</v>
+        <v>0.9538268585404803</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368228</v>
+        <v>0.9318723593368231</v>
       </c>
       <c r="F13">
-        <v>0.8749961966048819</v>
+        <v>0.8749961966048799</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015220520369853</v>
+        <v>1.015220520369852</v>
       </c>
       <c r="J13">
-        <v>0.9506542463017239</v>
+        <v>0.9506542463017223</v>
       </c>
       <c r="K13">
-        <v>0.969848330841476</v>
+        <v>0.9698483308414744</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.8929323624891425</v>
+        <v>0.8929323624891407</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9193210799745767</v>
+        <v>0.9193210799745776</v>
       </c>
       <c r="D14">
-        <v>0.9556185590442471</v>
+        <v>0.9556185590442475</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.878166018279956</v>
+        <v>0.8781660182799561</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016046642536179</v>
+        <v>1.016046642536178</v>
       </c>
       <c r="J14">
-        <v>0.9525241707263382</v>
+        <v>0.9525241707263388</v>
       </c>
       <c r="K14">
-        <v>0.9714470994839346</v>
+        <v>0.9714470994839352</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>0.9490745509764513</v>
       </c>
       <c r="M14">
-        <v>0.8958407174265985</v>
+        <v>0.895840717426599</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9207501728872002</v>
+        <v>0.9207501728871996</v>
       </c>
       <c r="D15">
-        <v>0.9567101711639749</v>
+        <v>0.9567101711639744</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.8800944294593464</v>
+        <v>0.8800944294593458</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.016549373976103</v>
       </c>
       <c r="J15">
-        <v>0.9536627503310808</v>
+        <v>0.9536627503310802</v>
       </c>
       <c r="K15">
-        <v>0.9724206331617935</v>
+        <v>0.9724206331617932</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.8976101054957889</v>
+        <v>0.8976101054957885</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9288307898961535</v>
+        <v>0.9288307898961539</v>
       </c>
       <c r="D16">
-        <v>0.9628876782899853</v>
+        <v>0.9628876782899857</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017257</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.8909690135399043</v>
+        <v>0.8909690135399047</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.019385571800918</v>
       </c>
       <c r="J16">
-        <v>0.9600962532479076</v>
+        <v>0.9600962532479077</v>
       </c>
       <c r="K16">
-        <v>0.9779222143397063</v>
+        <v>0.9779222143397066</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9075882655325148</v>
+        <v>0.9075882655325153</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9337065604229366</v>
+        <v>0.933706560422937</v>
       </c>
       <c r="D17">
-        <v>0.9666191308192091</v>
+        <v>0.9666191308192095</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.8975080206980734</v>
+        <v>0.8975080206980737</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.021091135698403</v>
       </c>
       <c r="J17">
-        <v>0.9639743262090521</v>
+        <v>0.9639743262090525</v>
       </c>
       <c r="K17">
-        <v>0.9812389064742905</v>
+        <v>0.981238906474291</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9135882136503967</v>
+        <v>0.9135882136503972</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9364866724860608</v>
+        <v>0.9364866724860593</v>
       </c>
       <c r="D18">
-        <v>0.9687480302976432</v>
+        <v>0.9687480302976421</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9012294156558069</v>
+        <v>0.9012294156558054</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.022061495918412</v>
       </c>
       <c r="J18">
-        <v>0.9661841903008889</v>
+        <v>0.9661841903008875</v>
       </c>
       <c r="K18">
-        <v>0.9831289371878953</v>
+        <v>0.9831289371878944</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.917002704959601</v>
+        <v>0.9170027049595997</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9374242782079579</v>
+        <v>0.9374242782079555</v>
       </c>
       <c r="D19">
-        <v>0.969466211084367</v>
+        <v>0.9694662110843648</v>
       </c>
       <c r="E19">
-        <v>0.9397594814680091</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9024833617374352</v>
+        <v>0.9024833617374324</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.022388387028382</v>
+        <v>1.022388387028381</v>
       </c>
       <c r="J19">
-        <v>0.9669292452113415</v>
+        <v>0.9669292452113392</v>
       </c>
       <c r="K19">
-        <v>0.9837661644117086</v>
+        <v>0.9837661644117064</v>
       </c>
       <c r="L19">
-        <v>0.9546352493812711</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9181532080942969</v>
+        <v>0.9181532080942945</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9331901589425471</v>
+        <v>0.9331901589425468</v>
       </c>
       <c r="D20">
-        <v>0.9662237903734449</v>
+        <v>0.9662237903734444</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.8968162231769694</v>
+        <v>0.8968162231769699</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.020910717750504</v>
+        <v>1.020910717750503</v>
       </c>
       <c r="J20">
         <v>0.9635637359057794</v>
       </c>
       <c r="K20">
-        <v>0.98088774429153</v>
+        <v>0.9808877442915297</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9129534565051104</v>
+        <v>0.9129534565051108</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9186336198479272</v>
+        <v>0.9186336198479267</v>
       </c>
       <c r="D21">
-        <v>0.9550935434464166</v>
+        <v>0.9550935434464165</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.8772377813436413</v>
+        <v>0.8772377813436404</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.015804691123891</v>
       </c>
       <c r="J21">
-        <v>0.9519763796979569</v>
+        <v>0.9519763796979563</v>
       </c>
       <c r="K21">
-        <v>0.9709787303006013</v>
+        <v>0.9709787303006011</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.8949890371146579</v>
+        <v>0.894989037114657</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9087705331838888</v>
+        <v>0.9087705331838878</v>
       </c>
       <c r="D22">
-        <v>0.9475685412892283</v>
+        <v>0.9475685412892277</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.8638764092098991</v>
+        <v>0.8638764092098977</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012325806588293</v>
+        <v>1.012325806588294</v>
       </c>
       <c r="J22">
-        <v>0.9441115442634932</v>
+        <v>0.9441115442634923</v>
       </c>
       <c r="K22">
-        <v>0.9642554978146665</v>
+        <v>0.9642554978146655</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.8827308615047409</v>
+        <v>0.8827308615047399</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9140743288640111</v>
+        <v>0.9140743288640117</v>
       </c>
       <c r="D23">
-        <v>0.9516132870759479</v>
+        <v>0.9516132870759484</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.8710717953777914</v>
+        <v>0.8710717953777918</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01419824952183</v>
+        <v>1.014198249521831</v>
       </c>
       <c r="J23">
-        <v>0.9483420769789157</v>
+        <v>0.9483420769789163</v>
       </c>
       <c r="K23">
-        <v>0.9678716293173198</v>
+        <v>0.9678716293173205</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.889331829229834</v>
+        <v>0.8893318292298346</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9334236944783568</v>
+        <v>0.9334236944783577</v>
       </c>
       <c r="D24">
-        <v>0.9664025737995222</v>
+        <v>0.966402573799523</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.8971291010088284</v>
+        <v>0.8971291010088293</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.020992315981932</v>
+        <v>1.020992315981933</v>
       </c>
       <c r="J24">
-        <v>0.9637494240543587</v>
+        <v>0.9637494240543597</v>
       </c>
       <c r="K24">
-        <v>0.9810465560891148</v>
+        <v>0.9810465560891157</v>
       </c>
       <c r="L24">
-        <v>0.953371659644245</v>
+        <v>0.9533716596442449</v>
       </c>
       <c r="M24">
-        <v>0.9132405372097954</v>
+        <v>0.9132405372097965</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9534022709202282</v>
+        <v>0.953402270920227</v>
       </c>
       <c r="D25">
-        <v>0.9817189511692767</v>
+        <v>0.9817189511692754</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717732</v>
+        <v>0.9463835801717733</v>
       </c>
       <c r="F25">
-        <v>0.9237741317634806</v>
+        <v>0.9237741317634792</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027927075189551</v>
+        <v>1.02792707518955</v>
       </c>
       <c r="J25">
-        <v>0.9796064526849959</v>
+        <v>0.9796064526849949</v>
       </c>
       <c r="K25">
-        <v>0.9946078447564295</v>
+        <v>0.9946078447564283</v>
       </c>
       <c r="L25">
-        <v>0.959875449400561</v>
+        <v>0.9598754494005611</v>
       </c>
       <c r="M25">
-        <v>0.9376834775180947</v>
+        <v>0.9376834775180934</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9678307273075296</v>
+        <v>0.9678768857273341</v>
       </c>
       <c r="D2">
-        <v>0.99280212654939</v>
+        <v>0.9928388415380749</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9428937306674469</v>
+        <v>0.9429425853614231</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032866607661459</v>
+        <v>1.032885227611742</v>
       </c>
       <c r="J2">
-        <v>0.9910181159671757</v>
+        <v>0.9910627633076613</v>
       </c>
       <c r="K2">
-        <v>1.004362658445253</v>
+        <v>1.004398852538919</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9552104631797268</v>
+        <v>0.9552585274022788</v>
+      </c>
+      <c r="N2">
+        <v>0.9945692444556351</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9776055963302278</v>
+        <v>0.9776414289443429</v>
       </c>
       <c r="D3">
-        <v>1.000317589831259</v>
+        <v>1.000346143509202</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9558030702638484</v>
+        <v>0.9558407484750029</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036171327138615</v>
+        <v>1.036185826991801</v>
       </c>
       <c r="J3">
-        <v>0.998725947963808</v>
+        <v>0.9987607414296024</v>
       </c>
       <c r="K3">
-        <v>1.010946408648438</v>
+        <v>1.010974597279612</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9670345381859838</v>
+        <v>0.9670716762607415</v>
+      </c>
+      <c r="N3">
+        <v>1.000022343345549</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9836498348451204</v>
+        <v>0.9836795059085169</v>
       </c>
       <c r="D4">
-        <v>1.004966429469854</v>
+        <v>1.004990098861749</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9637720350693355</v>
+        <v>0.9638031152991606</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038194922866283</v>
+        <v>1.038206952412324</v>
       </c>
       <c r="J4">
-        <v>1.003481232727535</v>
+        <v>1.00351011014253</v>
       </c>
       <c r="K4">
-        <v>1.015005281358463</v>
+        <v>1.015028668580011</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9743283015714375</v>
+        <v>0.9743589705168763</v>
+      </c>
+      <c r="N4">
+        <v>1.00338181605894</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9861291408823588</v>
+        <v>0.9861563303653564</v>
       </c>
       <c r="D5">
-        <v>1.006873560794601</v>
+        <v>1.006895260006749</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9670384478890951</v>
+        <v>0.9670668853859455</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039020134006068</v>
+        <v>1.039031166065532</v>
       </c>
       <c r="J5">
-        <v>1.0054292076115</v>
+        <v>1.005455694586811</v>
       </c>
       <c r="K5">
-        <v>1.016667192748149</v>
+        <v>1.016688640940918</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>0.9773166084721656</v>
+        <v>0.9773446822896631</v>
+      </c>
+      <c r="N5">
+        <v>1.004756839180804</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.986541956292017</v>
+        <v>0.9865687350794071</v>
       </c>
       <c r="D6">
-        <v>1.007191113469751</v>
+        <v>1.00721248645473</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9675822003905485</v>
+        <v>0.9676102013198842</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03915724709282</v>
+        <v>1.039168113926509</v>
       </c>
       <c r="J6">
-        <v>1.005753399835122</v>
+        <v>1.005779490767452</v>
       </c>
       <c r="K6">
-        <v>1.016943728478735</v>
+        <v>1.016964855473955</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>0.9778139838665642</v>
+        <v>0.9778416287586656</v>
+      </c>
+      <c r="N6">
+        <v>1.004985608620735</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9836831991208155</v>
+        <v>0.9837128366165844</v>
       </c>
       <c r="D7">
-        <v>1.004992093351604</v>
+        <v>1.005015736105008</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9638160000561059</v>
+        <v>0.9638470444829531</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038206047203243</v>
+        <v>1.038218063266492</v>
       </c>
       <c r="J7">
-        <v>1.00350745721469</v>
+        <v>1.003536302324651</v>
       </c>
       <c r="K7">
-        <v>1.01502765794499</v>
+        <v>1.015051018958068</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>0.9743685287791647</v>
+        <v>0.9743991625819461</v>
+      </c>
+      <c r="N7">
+        <v>1.003400331873666</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9711958999081386</v>
+        <v>0.9712384505361416</v>
       </c>
       <c r="D8">
-        <v>0.9953889677218384</v>
+        <v>0.9954228345996541</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.947341427818837</v>
+        <v>0.9473863602139661</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034008494655126</v>
+        <v>1.034025677819296</v>
       </c>
       <c r="J8">
-        <v>0.9936739706293707</v>
+        <v>0.9937151835900583</v>
       </c>
       <c r="K8">
-        <v>1.006631762775674</v>
+        <v>1.006665165556305</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9592853183665696</v>
+        <v>0.9593295526853282</v>
+      </c>
+      <c r="N8">
+        <v>0.9964492010638702</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9467432655532612</v>
+        <v>0.9468134700447224</v>
       </c>
       <c r="D9">
-        <v>0.976609443677629</v>
+        <v>0.9766650482442067</v>
       </c>
       <c r="E9">
         <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9149179337982355</v>
+        <v>0.9149934250300409</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025626535346016</v>
+        <v>1.025654659451926</v>
       </c>
       <c r="J9">
-        <v>0.9743277459403725</v>
+        <v>0.974395057824169</v>
       </c>
       <c r="K9">
-        <v>0.9900937696542941</v>
+        <v>0.9901484153986199</v>
       </c>
       <c r="L9">
         <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9295607590001133</v>
+        <v>0.9296347066679048</v>
+      </c>
+      <c r="N9">
+        <v>0.98273460625821</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9282707487388488</v>
+        <v>0.9283644661721578</v>
       </c>
       <c r="D10">
-        <v>0.9624592631344933</v>
+        <v>0.9625331847575221</v>
       </c>
       <c r="E10">
         <v>0.9361465105547168</v>
       </c>
       <c r="F10">
-        <v>0.8902168772949886</v>
+        <v>0.890319289046609</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01918937643829</v>
+        <v>1.019226680941469</v>
       </c>
       <c r="J10">
-        <v>0.9596506194625767</v>
+        <v>0.9597397370133453</v>
       </c>
       <c r="K10">
-        <v>0.977541103192025</v>
+        <v>0.9776135498257205</v>
       </c>
       <c r="L10">
         <v>0.9517730114689269</v>
       </c>
       <c r="M10">
-        <v>0.9068981244591897</v>
+        <v>0.9069980213186926</v>
+      </c>
+      <c r="N10">
+        <v>0.9723051860241062</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9195948360929618</v>
+        <v>0.9197005695828159</v>
       </c>
       <c r="D11">
-        <v>0.955827645765514</v>
+        <v>0.9559108715380841</v>
       </c>
       <c r="E11">
         <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.8785355493541676</v>
+        <v>0.8786520685442174</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016142970424756</v>
+        <v>1.016184926759905</v>
       </c>
       <c r="J11">
-        <v>0.9527422940319439</v>
+        <v>0.9528424303503605</v>
       </c>
       <c r="K11">
-        <v>0.9716336008580302</v>
+        <v>0.9717150592290537</v>
       </c>
       <c r="L11">
         <v>0.9491556125416574</v>
       </c>
       <c r="M11">
-        <v>0.8961797734309507</v>
+        <v>0.8962931903337411</v>
+      </c>
+      <c r="N11">
+        <v>0.9673910708779648</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9162517352985241</v>
+        <v>0.916362289574796</v>
       </c>
       <c r="D12">
-        <v>0.95327500302039</v>
+        <v>0.9533619511677213</v>
       </c>
       <c r="E12">
         <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.874018682943014</v>
+        <v>0.8741409301814872</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.014965829652541</v>
+        <v>1.015009645159637</v>
       </c>
       <c r="J12">
-        <v>0.9500780124602201</v>
+        <v>0.9501825472436267</v>
       </c>
       <c r="K12">
-        <v>0.9693556818293242</v>
+        <v>0.969440740404568</v>
       </c>
       <c r="L12">
         <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.8920355018176428</v>
+        <v>0.8921543937003401</v>
+      </c>
+      <c r="N12">
+        <v>0.9654952068418398</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9169746546105639</v>
+        <v>0.9170841569502765</v>
       </c>
       <c r="D13">
-        <v>0.9538268585404803</v>
+        <v>0.9539129949347422</v>
       </c>
       <c r="E13">
         <v>0.9318723593368231</v>
       </c>
       <c r="F13">
-        <v>0.8749961966048799</v>
+        <v>0.8751171905753801</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015220520369852</v>
+        <v>1.015263930529547</v>
       </c>
       <c r="J13">
-        <v>0.9506542463017223</v>
+        <v>0.9507578223585365</v>
       </c>
       <c r="K13">
-        <v>0.9698483308414744</v>
+        <v>0.9699326045488963</v>
       </c>
       <c r="L13">
         <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.8929323624891407</v>
+        <v>0.8930500571771771</v>
+      </c>
+      <c r="N13">
+        <v>0.9659052749203609</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9193210799745776</v>
+        <v>0.9194272040660336</v>
       </c>
       <c r="D14">
-        <v>0.9556185590442475</v>
+        <v>0.9557020866394988</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.8781660182799561</v>
+        <v>0.878283000118294</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016046642536178</v>
+        <v>1.016088749658759</v>
       </c>
       <c r="J14">
-        <v>0.9525241707263388</v>
+        <v>0.9526246638915651</v>
       </c>
       <c r="K14">
-        <v>0.9714470994839352</v>
+        <v>0.971528849878713</v>
       </c>
       <c r="L14">
         <v>0.9490745509764513</v>
       </c>
       <c r="M14">
-        <v>0.895840717426599</v>
+        <v>0.8959545768445401</v>
+      </c>
+      <c r="N14">
+        <v>0.967235870428421</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9207501728871996</v>
+        <v>0.920854265909929</v>
       </c>
       <c r="D15">
-        <v>0.9567101711639744</v>
+        <v>0.9567921289024466</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.8800944294593458</v>
+        <v>0.8802090084063871</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016549373976103</v>
+        <v>1.016590696737292</v>
       </c>
       <c r="J15">
-        <v>0.9536627503310802</v>
+        <v>0.9537613870447099</v>
       </c>
       <c r="K15">
-        <v>0.9724206331617932</v>
+        <v>0.9725008644568031</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.8976101054957885</v>
+        <v>0.8977216659965677</v>
+      </c>
+      <c r="N15">
+        <v>0.9680459731191733</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9288307898961539</v>
+        <v>0.9289237547997423</v>
       </c>
       <c r="D16">
-        <v>0.9628876782899857</v>
+        <v>0.9629610159702563</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.8909690135399047</v>
+        <v>0.891070549780461</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019385571800918</v>
+        <v>1.019422584108631</v>
       </c>
       <c r="J16">
-        <v>0.9600962532479077</v>
+        <v>0.9601846780177405</v>
       </c>
       <c r="K16">
-        <v>0.9779222143397066</v>
+        <v>0.9779940947393269</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9075882655325153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9076873216112312</v>
+      </c>
+      <c r="N16">
+        <v>0.9726220826772616</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.933706560422937</v>
+        <v>0.9337930847006205</v>
       </c>
       <c r="D17">
-        <v>0.9666191308192095</v>
+        <v>0.9666874646164693</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.8975080206980737</v>
+        <v>0.8976021018555344</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021091135698403</v>
+        <v>1.02112564292432</v>
       </c>
       <c r="J17">
-        <v>0.9639743262090525</v>
+        <v>0.9640568082499165</v>
       </c>
       <c r="K17">
-        <v>0.981238906474291</v>
+        <v>0.9813059314799021</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9135882136503972</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9136801020032208</v>
+      </c>
+      <c r="N17">
+        <v>0.9753792785786787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9364866724860593</v>
+        <v>0.9365696102528864</v>
       </c>
       <c r="D18">
-        <v>0.9687480302976421</v>
+        <v>0.9688135728472299</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9012294156558054</v>
+        <v>0.9013193747504773</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.022061495918412</v>
+        <v>1.022094604791014</v>
       </c>
       <c r="J18">
-        <v>0.9661841903008875</v>
+        <v>0.9662633524536797</v>
       </c>
       <c r="K18">
-        <v>0.9831289371878944</v>
+        <v>0.9831932511757002</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9170027049595997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9170906236075287</v>
+      </c>
+      <c r="N18">
+        <v>0.9769499496078718</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9374242782079555</v>
+        <v>0.9375060199351337</v>
       </c>
       <c r="D19">
-        <v>0.9694662110843648</v>
+        <v>0.969530822031659</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9024833617374324</v>
+        <v>0.9025719508273723</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.022388387028381</v>
+        <v>1.022421029028136</v>
       </c>
       <c r="J19">
-        <v>0.9669292452113392</v>
+        <v>0.9670072985177518</v>
       </c>
       <c r="K19">
-        <v>0.9837661644117064</v>
+        <v>0.9838295731495547</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9181532080942945</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9182398063307429</v>
+      </c>
+      <c r="N19">
+        <v>0.9774794175097307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9331901589425468</v>
+        <v>0.9332773561416788</v>
       </c>
       <c r="D20">
-        <v>0.9662237903734444</v>
+        <v>0.9662926474963746</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.8968162231769699</v>
+        <v>0.8969110800695194</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.020910717750503</v>
+        <v>1.02094548707182</v>
       </c>
       <c r="J20">
-        <v>0.9635637359057794</v>
+        <v>0.9636468399876372</v>
       </c>
       <c r="K20">
-        <v>0.9808877442915297</v>
+        <v>0.9809552773706857</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9129534565051108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9130460913970134</v>
+      </c>
+      <c r="N20">
+        <v>0.9750874101900551</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9186336198479267</v>
+        <v>0.9187407280556009</v>
       </c>
       <c r="D21">
-        <v>0.9550935434464165</v>
+        <v>0.9551778313084013</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.8772377813436404</v>
+        <v>0.8773559299613319</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015804691123891</v>
+        <v>1.01584717803654</v>
       </c>
       <c r="J21">
-        <v>0.9519763796979563</v>
+        <v>0.9520777715699926</v>
       </c>
       <c r="K21">
-        <v>0.9709787303006011</v>
+        <v>0.9710612161949683</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.894989037114657</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8951040122963178</v>
+      </c>
+      <c r="N21">
+        <v>0.9668460923451028</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9087705331838878</v>
+        <v>0.9088922975262297</v>
       </c>
       <c r="D22">
-        <v>0.9475685412892277</v>
+        <v>0.9476641228878975</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.8638764092098977</v>
+        <v>0.8640121293423891</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012325806588294</v>
+        <v>1.012373930226885</v>
       </c>
       <c r="J22">
-        <v>0.9441115442634923</v>
+        <v>0.9442262602308696</v>
       </c>
       <c r="K22">
-        <v>0.9642554978146655</v>
+        <v>0.9643488958369572</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.8827308615047399</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8828625991764552</v>
+      </c>
+      <c r="N22">
+        <v>0.9612484390074929</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9140743288640117</v>
+        <v>0.9141880839987987</v>
       </c>
       <c r="D23">
-        <v>0.9516132870759484</v>
+        <v>0.951702703540191</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.8710717953777918</v>
+        <v>0.8711978676684302</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014198249521831</v>
+        <v>1.014243297277738</v>
       </c>
       <c r="J23">
-        <v>0.9483420769789163</v>
+        <v>0.9484495254249324</v>
       </c>
       <c r="K23">
-        <v>0.9678716293173205</v>
+        <v>0.9679590736422924</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.8893318292298346</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8894543726178084</v>
+      </c>
+      <c r="N23">
+        <v>0.964259765131768</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9334236944783577</v>
+        <v>0.9335105870930624</v>
       </c>
       <c r="D24">
-        <v>0.966402573799523</v>
+        <v>0.9664711940645493</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.8971291010088293</v>
+        <v>0.8972236066889444</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.020992315981933</v>
+        <v>1.021026966681582</v>
       </c>
       <c r="J24">
-        <v>0.9637494240543597</v>
+        <v>0.9638322466150803</v>
       </c>
       <c r="K24">
-        <v>0.9810465560891157</v>
+        <v>0.9811138592216406</v>
       </c>
       <c r="L24">
         <v>0.9533716596442449</v>
       </c>
       <c r="M24">
-        <v>0.9132405372097965</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9133328341281401</v>
+      </c>
+      <c r="N24">
+        <v>0.9752194082295251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.953402270920227</v>
+        <v>0.9534645939525032</v>
       </c>
       <c r="D25">
-        <v>0.9817189511692754</v>
+        <v>0.9817683821564394</v>
       </c>
       <c r="E25">
         <v>0.9463835801717733</v>
       </c>
       <c r="F25">
-        <v>0.9237741317634792</v>
+        <v>0.9238407957067374</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02792707518955</v>
+        <v>1.027952097601891</v>
       </c>
       <c r="J25">
-        <v>0.9796064526849949</v>
+        <v>0.979666378212403</v>
       </c>
       <c r="K25">
-        <v>0.9946078447564283</v>
+        <v>0.9946564712945125</v>
       </c>
       <c r="L25">
         <v>0.9598754494005611</v>
       </c>
       <c r="M25">
-        <v>0.9376834775180934</v>
+        <v>0.9377488712396459</v>
+      </c>
+      <c r="N25">
+        <v>0.9864809788925051</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9678768857273341</v>
+        <v>0.9893062815937674</v>
       </c>
       <c r="D2">
-        <v>0.9928388415380749</v>
+        <v>1.009894347414148</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9912977788554301</v>
       </c>
       <c r="F2">
-        <v>0.9429425853614231</v>
+        <v>0.9956116096757819</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032885227611742</v>
+        <v>1.041537531840828</v>
       </c>
       <c r="J2">
-        <v>0.9910627633076613</v>
+        <v>1.01181161318211</v>
       </c>
       <c r="K2">
-        <v>1.004398852538919</v>
+        <v>1.021217538027296</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.002879695705868</v>
       </c>
       <c r="M2">
-        <v>0.9552585274022788</v>
+        <v>1.007132422216256</v>
       </c>
       <c r="N2">
-        <v>0.9945692444556351</v>
+        <v>1.013248501729243</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9776414289443429</v>
+        <v>0.9995566889533222</v>
       </c>
       <c r="D3">
-        <v>1.000346143509202</v>
+        <v>1.017818806258851</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.001067367704447</v>
       </c>
       <c r="F3">
-        <v>0.9558407484750029</v>
+        <v>1.006181681398222</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036185826991801</v>
+        <v>1.045061101099518</v>
       </c>
       <c r="J3">
-        <v>0.9987607414296024</v>
+        <v>1.020059446374702</v>
       </c>
       <c r="K3">
-        <v>1.010974597279612</v>
+        <v>1.028228657766336</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.011686609555026</v>
       </c>
       <c r="M3">
-        <v>0.9670716762607415</v>
+        <v>1.016736072790313</v>
       </c>
       <c r="N3">
-        <v>1.000022343345549</v>
+        <v>1.021508047791008</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9836795059085169</v>
+        <v>1.005912626999511</v>
       </c>
       <c r="D4">
-        <v>1.004990098861749</v>
+        <v>1.022734589016731</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.007116026843916</v>
       </c>
       <c r="F4">
-        <v>0.9638031152991606</v>
+        <v>1.012731743848498</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038206952412324</v>
+        <v>1.047227644340032</v>
       </c>
       <c r="J4">
-        <v>1.00351011014253</v>
+        <v>1.025166286974839</v>
       </c>
       <c r="K4">
-        <v>1.015028668580011</v>
+        <v>1.032566157353549</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.017129319727307</v>
       </c>
       <c r="M4">
-        <v>0.9743589705168763</v>
+        <v>1.022678898591753</v>
       </c>
       <c r="N4">
-        <v>1.00338181605894</v>
+        <v>1.02662214069056</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9861563303653564</v>
+        <v>1.008523651357772</v>
       </c>
       <c r="D5">
-        <v>1.006895260006749</v>
+        <v>1.024754300940779</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>1.009598810490531</v>
       </c>
       <c r="F5">
-        <v>0.9670668853859455</v>
+        <v>1.01542172320632</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039031166065532</v>
+        <v>1.048113177595232</v>
       </c>
       <c r="J5">
-        <v>1.005455694586811</v>
+        <v>1.027262344020146</v>
       </c>
       <c r="K5">
-        <v>1.016688640940918</v>
+        <v>1.034345520869008</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>1.019361020632231</v>
       </c>
       <c r="M5">
-        <v>0.9773446822896631</v>
+        <v>1.025117492684954</v>
       </c>
       <c r="N5">
-        <v>1.004756839180804</v>
+        <v>1.028721174377292</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9865687350794071</v>
+        <v>1.008958616214428</v>
       </c>
       <c r="D6">
-        <v>1.00721248645473</v>
+        <v>1.025090772914581</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>1.010012298630335</v>
       </c>
       <c r="F6">
-        <v>0.9676102013198842</v>
+        <v>1.015869799531982</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039168113926509</v>
+        <v>1.048260430190012</v>
       </c>
       <c r="J6">
-        <v>1.005779490767452</v>
+        <v>1.027611411578499</v>
       </c>
       <c r="K6">
-        <v>1.016964855473955</v>
+        <v>1.034641791694229</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>1.019732554625915</v>
       </c>
       <c r="M6">
-        <v>0.9778416287586656</v>
+        <v>1.025523577204208</v>
       </c>
       <c r="N6">
-        <v>1.004985608620735</v>
+        <v>1.029070737651617</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9837128366165844</v>
+        <v>1.005947748934237</v>
       </c>
       <c r="D7">
-        <v>1.005015736105008</v>
+        <v>1.022761756008808</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.007149431511097</v>
       </c>
       <c r="F7">
-        <v>0.9638470444829531</v>
+        <v>1.01276793074393</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038218063266492</v>
+        <v>1.047239573912868</v>
       </c>
       <c r="J7">
-        <v>1.003536302324651</v>
+        <v>1.025194489254489</v>
       </c>
       <c r="K7">
-        <v>1.015051018958068</v>
+        <v>1.032590102292624</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.017159355534798</v>
       </c>
       <c r="M7">
-        <v>0.9743991625819461</v>
+        <v>1.022711711686788</v>
       </c>
       <c r="N7">
-        <v>1.003400331873666</v>
+        <v>1.026650383020682</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9712384505361416</v>
+        <v>0.9928311418491224</v>
       </c>
       <c r="D8">
-        <v>0.9954228345996541</v>
+        <v>1.01261879826119</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9946593637416545</v>
       </c>
       <c r="F8">
-        <v>0.9473863602139661</v>
+        <v>0.9992473905740497</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034025677819296</v>
+        <v>1.042753036605669</v>
       </c>
       <c r="J8">
-        <v>0.9937151835900583</v>
+        <v>1.01464936108628</v>
       </c>
       <c r="K8">
-        <v>1.006665165556305</v>
+        <v>1.023630510381851</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.0059121666441</v>
       </c>
       <c r="M8">
-        <v>0.9593295526853282</v>
+        <v>1.010437566092492</v>
       </c>
       <c r="N8">
-        <v>0.9964492010638702</v>
+        <v>1.016090279560931</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9468134700447224</v>
+        <v>0.9673190422367016</v>
       </c>
       <c r="D9">
-        <v>0.9766650482442067</v>
+        <v>0.9929189586493702</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9702790849532102</v>
       </c>
       <c r="F9">
-        <v>0.9149934250300409</v>
+        <v>0.9729045676662249</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025654659451926</v>
+        <v>1.033878619430694</v>
       </c>
       <c r="J9">
-        <v>0.974395057824169</v>
+        <v>0.9940810847810273</v>
       </c>
       <c r="K9">
-        <v>0.9901484153986199</v>
+        <v>1.006127975132252</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.983873499922567</v>
       </c>
       <c r="M9">
-        <v>0.9296347066679048</v>
+        <v>0.986453098698182</v>
       </c>
       <c r="N9">
-        <v>0.98273460625821</v>
+        <v>0.9954927939441105</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9283644661721578</v>
+        <v>0.9482165978207172</v>
       </c>
       <c r="D10">
-        <v>0.9625331847575221</v>
+        <v>0.9782070523506817</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547168</v>
+        <v>0.9519455564046752</v>
       </c>
       <c r="F10">
-        <v>0.890319289046609</v>
+        <v>0.9531295128855246</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019226680941469</v>
+        <v>1.0271396726702</v>
       </c>
       <c r="J10">
-        <v>0.9597397370133453</v>
+        <v>0.9786468448197967</v>
       </c>
       <c r="K10">
-        <v>0.9776135498257205</v>
+        <v>0.9929812581545239</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689269</v>
+        <v>0.9672402597190429</v>
       </c>
       <c r="M10">
-        <v>0.9069980213186926</v>
+        <v>0.9683999360307209</v>
       </c>
       <c r="N10">
-        <v>0.9723051860241062</v>
+        <v>0.9800366355918031</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9197005695828159</v>
+        <v>0.939304024609388</v>
       </c>
       <c r="D11">
-        <v>0.9559108715380841</v>
+        <v>0.9713575804070002</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9433674265587683</v>
       </c>
       <c r="F11">
-        <v>0.8786520685442174</v>
+        <v>0.943885152316142</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016184926759905</v>
+        <v>1.023975332015716</v>
       </c>
       <c r="J11">
-        <v>0.9528424303503605</v>
+        <v>0.9714395495441196</v>
       </c>
       <c r="K11">
-        <v>0.9717150592290537</v>
+        <v>0.98684064898693</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416574</v>
+        <v>0.9594426688945411</v>
       </c>
       <c r="M11">
-        <v>0.8962931903337411</v>
+        <v>0.9599490174670265</v>
       </c>
       <c r="N11">
-        <v>0.9673910708779648</v>
+        <v>0.9728191051301462</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.916362289574796</v>
+        <v>0.9358810472195032</v>
       </c>
       <c r="D12">
-        <v>0.9533619511677213</v>
+        <v>0.9687297357819836</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.940068624212594</v>
       </c>
       <c r="F12">
-        <v>0.8741409301814872</v>
+        <v>0.9403313870513609</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015009645159637</v>
+        <v>1.022757240578627</v>
       </c>
       <c r="J12">
-        <v>0.9501825472436267</v>
+        <v>0.9686707665103508</v>
       </c>
       <c r="K12">
-        <v>0.969440740404568</v>
+        <v>0.9844815887807982</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9564417195428661</v>
       </c>
       <c r="M12">
-        <v>0.8921543937003401</v>
+        <v>0.956698557474472</v>
       </c>
       <c r="N12">
-        <v>0.9654952068418398</v>
+        <v>0.9700463901068854</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9170841569502765</v>
+        <v>0.9366206804654831</v>
       </c>
       <c r="D13">
-        <v>0.9539129949347422</v>
+        <v>0.9692974221383583</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368231</v>
+        <v>0.940781629764804</v>
       </c>
       <c r="F13">
-        <v>0.8751171905753801</v>
+        <v>0.9410994445351621</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015263930529547</v>
+        <v>1.023020565675061</v>
       </c>
       <c r="J13">
-        <v>0.9507578223585365</v>
+        <v>0.9692690718616219</v>
       </c>
       <c r="K13">
-        <v>0.9699326045488963</v>
+        <v>0.9849913568888743</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9570904518926153</v>
       </c>
       <c r="M13">
-        <v>0.8930500571771771</v>
+        <v>0.9574011399247642</v>
       </c>
       <c r="N13">
-        <v>0.9659052749203609</v>
+        <v>0.970645545120382</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9194272040660336</v>
+        <v>0.9390234822394244</v>
       </c>
       <c r="D14">
-        <v>0.9557020866394988</v>
+        <v>0.9711421462777179</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9430971516796772</v>
       </c>
       <c r="F14">
-        <v>0.878283000118294</v>
+        <v>0.9435939629525572</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016088749658759</v>
+        <v>1.023875553704167</v>
       </c>
       <c r="J14">
-        <v>0.9526246638915651</v>
+        <v>0.9712126376593401</v>
       </c>
       <c r="K14">
-        <v>0.971528849878713</v>
+        <v>0.9866473155023012</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764513</v>
+        <v>0.9591968444113228</v>
       </c>
       <c r="M14">
-        <v>0.8959545768445401</v>
+        <v>0.9596827148629181</v>
       </c>
       <c r="N14">
-        <v>0.967235870428421</v>
+        <v>0.972591871004463</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.920854265909929</v>
+        <v>0.940488474694136</v>
       </c>
       <c r="D15">
-        <v>0.9567921289024466</v>
+        <v>0.9722672592442814</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9445083506982352</v>
       </c>
       <c r="F15">
-        <v>0.8802090084063871</v>
+        <v>0.9451144139252677</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016590696737292</v>
+        <v>1.02439648499332</v>
       </c>
       <c r="J15">
-        <v>0.9537613870447099</v>
+        <v>0.9723975431297436</v>
       </c>
       <c r="K15">
-        <v>0.9725008644568031</v>
+        <v>0.9876568774452442</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9604802857988591</v>
       </c>
       <c r="M15">
-        <v>0.8977216659965677</v>
+        <v>0.9610731500485042</v>
       </c>
       <c r="N15">
-        <v>0.9680459731191733</v>
+        <v>0.9737784591765453</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9289237547997423</v>
+        <v>0.9487933007439302</v>
       </c>
       <c r="D16">
-        <v>0.9629610159702563</v>
+        <v>0.9786506027836656</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9525000741402997</v>
       </c>
       <c r="F16">
-        <v>0.891070549780461</v>
+        <v>0.9537272664824983</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019422584108631</v>
+        <v>1.027344033671371</v>
       </c>
       <c r="J16">
-        <v>0.9601846780177405</v>
+        <v>0.9791130936530505</v>
       </c>
       <c r="K16">
-        <v>0.9779940947393269</v>
+        <v>0.9933784840189619</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9677440102812548</v>
       </c>
       <c r="M16">
-        <v>0.9076873216112312</v>
+        <v>0.9689461508507886</v>
       </c>
       <c r="N16">
-        <v>0.9726220826772616</v>
+        <v>0.9805035465518795</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9337930847006205</v>
+        <v>0.9538208559982226</v>
       </c>
       <c r="D17">
-        <v>0.9666874646164693</v>
+        <v>0.9825190449231791</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9573314707796347</v>
       </c>
       <c r="F17">
-        <v>0.8976021018555344</v>
+        <v>0.9589362824957844</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02112564292432</v>
+        <v>1.029123389213807</v>
       </c>
       <c r="J17">
-        <v>0.9640568082499165</v>
+        <v>0.9831770696721386</v>
       </c>
       <c r="K17">
-        <v>0.9813059314799021</v>
+        <v>0.9968406819030615</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.972131414492727</v>
       </c>
       <c r="M17">
-        <v>0.9136801020032208</v>
+        <v>0.9737047677759585</v>
       </c>
       <c r="N17">
-        <v>0.9753792785786787</v>
+        <v>0.9845732938830593</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9365696102528864</v>
+        <v>0.9566927591964179</v>
       </c>
       <c r="D18">
-        <v>0.9688135728472299</v>
+        <v>0.984730131174759</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9600891265359008</v>
       </c>
       <c r="F18">
-        <v>0.9013193747504773</v>
+        <v>0.9619102342088023</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.022094604791014</v>
+        <v>1.03013793852771</v>
       </c>
       <c r="J18">
-        <v>0.9662633524536797</v>
+        <v>0.9854979610717823</v>
       </c>
       <c r="K18">
-        <v>0.9831932511757002</v>
+        <v>0.9988177529952742</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.974634271206109</v>
       </c>
       <c r="M18">
-        <v>0.9170906236075287</v>
+        <v>0.9764205157292141</v>
       </c>
       <c r="N18">
-        <v>0.9769499496078718</v>
+        <v>0.9868974812147002</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9375060199351337</v>
+        <v>0.9576621556602007</v>
       </c>
       <c r="D19">
-        <v>0.969530822031659</v>
+        <v>0.985476678817977</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9610196026398579</v>
       </c>
       <c r="F19">
-        <v>0.9025719508273723</v>
+        <v>0.9629138205766933</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.022421029028136</v>
+        <v>1.030480069952922</v>
       </c>
       <c r="J19">
-        <v>0.9670072985177518</v>
+        <v>0.9862812622271927</v>
       </c>
       <c r="K19">
-        <v>0.9838295731495547</v>
+        <v>0.9994849846979221</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>0.9754785418836234</v>
       </c>
       <c r="M19">
-        <v>0.9182398063307429</v>
+        <v>0.9773367888292089</v>
       </c>
       <c r="N19">
-        <v>0.9774794175097307</v>
+        <v>0.9876818947475974</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9332773561416788</v>
+        <v>0.9532878175408402</v>
       </c>
       <c r="D20">
-        <v>0.9662926474963746</v>
+        <v>0.9821087597211555</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9568194624574139</v>
       </c>
       <c r="F20">
-        <v>0.8969110800695194</v>
+        <v>0.9583841766811196</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02094548707182</v>
+        <v>1.028934930021777</v>
       </c>
       <c r="J20">
-        <v>0.9636468399876372</v>
+        <v>0.9827462528211067</v>
       </c>
       <c r="K20">
-        <v>0.9809552773706857</v>
+        <v>0.9964736735113069</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9716666024291112</v>
       </c>
       <c r="M20">
-        <v>0.9130460913970134</v>
+        <v>0.9732005104377008</v>
       </c>
       <c r="N20">
-        <v>0.9750874101900551</v>
+        <v>0.9841418652226833</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9187407280556009</v>
+        <v>0.9383191714342437</v>
       </c>
       <c r="D21">
-        <v>0.9551778313084013</v>
+        <v>0.9706013384575078</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9424185469486689</v>
       </c>
       <c r="F21">
-        <v>0.8773559299613319</v>
+        <v>0.9428628661439099</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.01584717803654</v>
+        <v>1.023625013206951</v>
       </c>
       <c r="J21">
-        <v>0.9520777715699926</v>
+        <v>0.9706429568506052</v>
       </c>
       <c r="K21">
-        <v>0.9710612161949683</v>
+        <v>0.9861619356854815</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>0.9585795924073488</v>
       </c>
       <c r="M21">
-        <v>0.8951040122963178</v>
+        <v>0.9590140745188408</v>
       </c>
       <c r="N21">
-        <v>0.9668460923451028</v>
+        <v>0.9720213811836365</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9088922975262297</v>
+        <v>0.9282458642813833</v>
       </c>
       <c r="D22">
-        <v>0.9476641228878975</v>
+        <v>0.9628740646302019</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>0.9327016443079484</v>
       </c>
       <c r="F22">
-        <v>0.8640121293423891</v>
+        <v>0.9323973264025843</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012373930226885</v>
+        <v>1.020035337455373</v>
       </c>
       <c r="J22">
-        <v>0.9442262602308696</v>
+        <v>0.9624936894541843</v>
       </c>
       <c r="K22">
-        <v>0.9643488958369572</v>
+        <v>0.9792187018668199</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9497355506628715</v>
       </c>
       <c r="M22">
-        <v>0.8828625991764552</v>
+        <v>0.9494384897369322</v>
       </c>
       <c r="N22">
-        <v>0.9612484390074929</v>
+        <v>0.9638605408927785</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9141880839987987</v>
+        <v>0.9336552066368744</v>
       </c>
       <c r="D23">
-        <v>0.951702703540191</v>
+        <v>0.9670218080026414</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>0.937922233082603</v>
       </c>
       <c r="F23">
-        <v>0.8711978676684302</v>
+        <v>0.9380194529906042</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014243297277738</v>
+        <v>1.021964406505371</v>
       </c>
       <c r="J23">
-        <v>0.9484495254249324</v>
+        <v>0.9668701447831828</v>
       </c>
       <c r="K23">
-        <v>0.9679590736422924</v>
+        <v>0.9829474293760306</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>0.9544884692793204</v>
       </c>
       <c r="M23">
-        <v>0.8894543726178084</v>
+        <v>0.9545834605061762</v>
       </c>
       <c r="N23">
-        <v>0.964259765131768</v>
+        <v>0.9682432112903308</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9335105870930624</v>
+        <v>0.9535288607229867</v>
       </c>
       <c r="D24">
-        <v>0.9664711940645493</v>
+        <v>0.9822942891154091</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011709</v>
+        <v>0.9570510024862735</v>
       </c>
       <c r="F24">
-        <v>0.8972236066889444</v>
+        <v>0.9586338472019594</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021026966681582</v>
+        <v>1.029020158263518</v>
       </c>
       <c r="J24">
-        <v>0.9638322466150803</v>
+        <v>0.982941072614831</v>
       </c>
       <c r="K24">
-        <v>0.9811138592216406</v>
+        <v>0.9966396389503255</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442449</v>
+        <v>0.9718768036930664</v>
       </c>
       <c r="M24">
-        <v>0.9133328341281401</v>
+        <v>0.9734285464671155</v>
       </c>
       <c r="N24">
-        <v>0.9752194082295251</v>
+        <v>0.9843369616828609</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9534645939525032</v>
+        <v>0.9742427247097775</v>
       </c>
       <c r="D25">
-        <v>0.9817683821564394</v>
+        <v>0.998260326392123</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717733</v>
+        <v>0.9769071892859403</v>
       </c>
       <c r="F25">
-        <v>0.9238407957067374</v>
+        <v>0.9800605577690021</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027952097601891</v>
+        <v>1.036303308945224</v>
       </c>
       <c r="J25">
-        <v>0.979666378212403</v>
+        <v>0.9996691419831226</v>
       </c>
       <c r="K25">
-        <v>0.9946564712945125</v>
+        <v>1.010885708716122</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005611</v>
+        <v>0.9898748916850365</v>
       </c>
       <c r="M25">
-        <v>0.9377488712396459</v>
+        <v>0.9929765008066276</v>
       </c>
       <c r="N25">
-        <v>0.9864809788925051</v>
+        <v>1.001088786828392</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9893062815937674</v>
+        <v>1.010353720491205</v>
       </c>
       <c r="D2">
-        <v>1.009894347414148</v>
+        <v>1.024799789979002</v>
       </c>
       <c r="E2">
-        <v>0.9912977788554301</v>
+        <v>1.020475060455917</v>
       </c>
       <c r="F2">
-        <v>0.9956116096757819</v>
+        <v>1.027873153187282</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041537531840828</v>
+        <v>1.045902759328849</v>
       </c>
       <c r="J2">
-        <v>1.01181161318211</v>
+        <v>1.032229102885957</v>
       </c>
       <c r="K2">
-        <v>1.021217538027296</v>
+        <v>1.035924106658828</v>
       </c>
       <c r="L2">
-        <v>1.002879695705868</v>
+        <v>1.031656328619423</v>
       </c>
       <c r="M2">
-        <v>1.007132422216256</v>
+        <v>1.038957362128126</v>
       </c>
       <c r="N2">
-        <v>1.013248501729243</v>
+        <v>1.014481303173415</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9995566889533222</v>
+        <v>1.014726873994473</v>
       </c>
       <c r="D3">
-        <v>1.017818806258851</v>
+        <v>1.027917178552243</v>
       </c>
       <c r="E3">
-        <v>1.001067367704447</v>
+        <v>1.025208592279621</v>
       </c>
       <c r="F3">
-        <v>1.006181681398222</v>
+        <v>1.032757389845248</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045061101099518</v>
+        <v>1.047228543683447</v>
       </c>
       <c r="J3">
-        <v>1.020059446374702</v>
+        <v>1.03482396475349</v>
       </c>
       <c r="K3">
-        <v>1.028228657766336</v>
+        <v>1.038204892636755</v>
       </c>
       <c r="L3">
-        <v>1.011686609555026</v>
+        <v>1.035528773013848</v>
       </c>
       <c r="M3">
-        <v>1.016736072790313</v>
+        <v>1.042987611691649</v>
       </c>
       <c r="N3">
-        <v>1.021508047791008</v>
+        <v>1.015358209546473</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005912626999511</v>
+        <v>1.017497768616811</v>
       </c>
       <c r="D4">
-        <v>1.022734589016731</v>
+        <v>1.029895300842745</v>
       </c>
       <c r="E4">
-        <v>1.007116026843916</v>
+        <v>1.028216072209484</v>
       </c>
       <c r="F4">
-        <v>1.012731743848498</v>
+        <v>1.035859083260673</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047227644340032</v>
+        <v>1.048059867244499</v>
       </c>
       <c r="J4">
-        <v>1.025166286974839</v>
+        <v>1.036464228658899</v>
       </c>
       <c r="K4">
-        <v>1.032566157353549</v>
+        <v>1.039645823224197</v>
       </c>
       <c r="L4">
-        <v>1.017129319727307</v>
+        <v>1.037985475513668</v>
       </c>
       <c r="M4">
-        <v>1.022678898591753</v>
+        <v>1.045543158411764</v>
       </c>
       <c r="N4">
-        <v>1.02662214069056</v>
+        <v>1.015912358111809</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008523651357772</v>
+        <v>1.018649057726633</v>
       </c>
       <c r="D5">
-        <v>1.024754300940779</v>
+        <v>1.030717846350084</v>
       </c>
       <c r="E5">
-        <v>1.009598810490531</v>
+        <v>1.029467656018116</v>
       </c>
       <c r="F5">
-        <v>1.01542172320632</v>
+        <v>1.037149504969739</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048113177595232</v>
+        <v>1.048403154295844</v>
       </c>
       <c r="J5">
-        <v>1.027262344020146</v>
+        <v>1.037144788664938</v>
       </c>
       <c r="K5">
-        <v>1.034345520869008</v>
+        <v>1.040243476303624</v>
       </c>
       <c r="L5">
-        <v>1.019361020632231</v>
+        <v>1.039006958858951</v>
       </c>
       <c r="M5">
-        <v>1.025117492684954</v>
+        <v>1.046605432793508</v>
       </c>
       <c r="N5">
-        <v>1.028721174377292</v>
+        <v>1.016142236813293</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008958616214428</v>
+        <v>1.018841580767988</v>
       </c>
       <c r="D6">
-        <v>1.025090772914581</v>
+        <v>1.030855432371221</v>
       </c>
       <c r="E6">
-        <v>1.010012298630335</v>
+        <v>1.029677068500069</v>
       </c>
       <c r="F6">
-        <v>1.015869799531982</v>
+        <v>1.03736539398072</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048260430190012</v>
+        <v>1.048460434387054</v>
       </c>
       <c r="J6">
-        <v>1.027611411578499</v>
+        <v>1.037258537346642</v>
       </c>
       <c r="K6">
-        <v>1.034641791694229</v>
+        <v>1.040343355787233</v>
       </c>
       <c r="L6">
-        <v>1.019732554625915</v>
+        <v>1.039177818834502</v>
       </c>
       <c r="M6">
-        <v>1.025523577204208</v>
+        <v>1.046783097547602</v>
       </c>
       <c r="N6">
-        <v>1.029070737651617</v>
+        <v>1.016180656096668</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005947748934237</v>
+        <v>1.017513204987775</v>
       </c>
       <c r="D7">
-        <v>1.022761756008808</v>
+        <v>1.029906326952035</v>
       </c>
       <c r="E7">
-        <v>1.007149431511097</v>
+        <v>1.028232845417959</v>
       </c>
       <c r="F7">
-        <v>1.01276793074393</v>
+        <v>1.035876378419193</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047239573912868</v>
+        <v>1.048064478431153</v>
       </c>
       <c r="J7">
-        <v>1.025194489254489</v>
+        <v>1.036473357367232</v>
       </c>
       <c r="K7">
-        <v>1.032590102292624</v>
+        <v>1.039653840668991</v>
       </c>
       <c r="L7">
-        <v>1.017159355534798</v>
+        <v>1.037999168536864</v>
       </c>
       <c r="M7">
-        <v>1.022711711686788</v>
+        <v>1.045557399460789</v>
       </c>
       <c r="N7">
-        <v>1.026650383020682</v>
+        <v>1.015915441768062</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9928311418491224</v>
+        <v>1.011844131053784</v>
       </c>
       <c r="D8">
-        <v>1.01261879826119</v>
+        <v>1.025861586950821</v>
       </c>
       <c r="E8">
-        <v>0.9946593637416545</v>
+        <v>1.022086572286906</v>
       </c>
       <c r="F8">
-        <v>0.9992473905740497</v>
+        <v>1.029536293385682</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042753036605669</v>
+        <v>1.04635640658107</v>
       </c>
       <c r="J8">
-        <v>1.01464936108628</v>
+        <v>1.033114251437873</v>
       </c>
       <c r="K8">
-        <v>1.023630510381851</v>
+        <v>1.036702280846055</v>
       </c>
       <c r="L8">
-        <v>1.0059121666441</v>
+        <v>1.032975452413991</v>
       </c>
       <c r="M8">
-        <v>1.010437566092492</v>
+        <v>1.040330504901369</v>
       </c>
       <c r="N8">
-        <v>1.016090279560931</v>
+        <v>1.014780461490534</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9673190422367016</v>
+        <v>1.001380681347746</v>
       </c>
       <c r="D9">
-        <v>0.9929189586493702</v>
+        <v>1.018421566723118</v>
       </c>
       <c r="E9">
-        <v>0.9702790849532102</v>
+        <v>1.010807256171939</v>
       </c>
       <c r="F9">
-        <v>0.9729045676662249</v>
+        <v>1.017889148053745</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033878619430694</v>
+        <v>1.0431358949998</v>
       </c>
       <c r="J9">
-        <v>0.9940810847810273</v>
+        <v>1.026884778228399</v>
       </c>
       <c r="K9">
-        <v>1.006127975132252</v>
+        <v>1.031222673517664</v>
       </c>
       <c r="L9">
-        <v>0.983873499922567</v>
+        <v>1.023727393276515</v>
       </c>
       <c r="M9">
-        <v>0.986453098698182</v>
+        <v>1.030698503875614</v>
       </c>
       <c r="N9">
-        <v>0.9954927939441105</v>
+        <v>1.012674518480276</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9482165978207172</v>
+        <v>0.9940518032508152</v>
       </c>
       <c r="D10">
-        <v>0.9782070523506817</v>
+        <v>1.013230966634159</v>
       </c>
       <c r="E10">
-        <v>0.9519455564046752</v>
+        <v>1.002949821125793</v>
       </c>
       <c r="F10">
-        <v>0.9531295128855246</v>
+        <v>1.009767288054699</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0271396726702</v>
+        <v>1.040836282990707</v>
       </c>
       <c r="J10">
-        <v>0.9786468448197967</v>
+        <v>1.022503422889466</v>
       </c>
       <c r="K10">
-        <v>0.9929812581545239</v>
+        <v>1.027365371612419</v>
       </c>
       <c r="L10">
-        <v>0.9672402597190429</v>
+        <v>1.017266019112598</v>
       </c>
       <c r="M10">
-        <v>0.9683999360307209</v>
+        <v>1.023962402375375</v>
       </c>
       <c r="N10">
-        <v>0.9800366355918031</v>
+        <v>1.011192839505904</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.939304024609388</v>
+        <v>0.9907861155202042</v>
       </c>
       <c r="D11">
-        <v>0.9713575804070002</v>
+        <v>1.010923762829482</v>
       </c>
       <c r="E11">
-        <v>0.9433674265587683</v>
+        <v>0.9994585492499376</v>
       </c>
       <c r="F11">
-        <v>0.943885152316142</v>
+        <v>1.006156591676226</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023975332015716</v>
+        <v>1.039801668110815</v>
       </c>
       <c r="J11">
-        <v>0.9714395495441196</v>
+        <v>1.020547290728752</v>
       </c>
       <c r="K11">
-        <v>0.98684064898693</v>
+        <v>1.025642571944668</v>
       </c>
       <c r="L11">
-        <v>0.9594426688945411</v>
+        <v>1.014390683767692</v>
       </c>
       <c r="M11">
-        <v>0.9599490174670265</v>
+        <v>1.020963330205538</v>
       </c>
       <c r="N11">
-        <v>0.9728191051301462</v>
+        <v>1.010531251392402</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9358810472195032</v>
+        <v>0.9895584598752715</v>
       </c>
       <c r="D12">
-        <v>0.9687297357819836</v>
+        <v>1.010057351504319</v>
       </c>
       <c r="E12">
-        <v>0.940068624212594</v>
+        <v>0.9981475622969158</v>
       </c>
       <c r="F12">
-        <v>0.9403313870513609</v>
+        <v>1.004800470654448</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022757240578627</v>
+        <v>1.039411281019501</v>
       </c>
       <c r="J12">
-        <v>0.9686707665103508</v>
+        <v>1.019811393996805</v>
       </c>
       <c r="K12">
-        <v>0.9844815887807982</v>
+        <v>1.02499437220621</v>
       </c>
       <c r="L12">
-        <v>0.9564417195428661</v>
+        <v>1.013310338350385</v>
       </c>
       <c r="M12">
-        <v>0.956698557474472</v>
+        <v>1.019836275513891</v>
       </c>
       <c r="N12">
-        <v>0.9700463901068854</v>
+        <v>1.010282356691346</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9366206804654831</v>
+        <v>0.9898224714765127</v>
       </c>
       <c r="D13">
-        <v>0.9692974221383583</v>
+        <v>1.010243633256221</v>
       </c>
       <c r="E13">
-        <v>0.940781629764804</v>
+        <v>0.9984294284547103</v>
       </c>
       <c r="F13">
-        <v>0.9410994445351621</v>
+        <v>1.005092053849691</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023020565675061</v>
+        <v>1.039495299875083</v>
       </c>
       <c r="J13">
-        <v>0.9692690718616219</v>
+        <v>1.019969674724247</v>
       </c>
       <c r="K13">
-        <v>0.9849913568888743</v>
+        <v>1.025133794092774</v>
       </c>
       <c r="L13">
-        <v>0.9570904518926153</v>
+        <v>1.013542644839133</v>
       </c>
       <c r="M13">
-        <v>0.9574011399247642</v>
+        <v>1.020078635651197</v>
       </c>
       <c r="N13">
-        <v>0.970645545120382</v>
+        <v>1.010335890499626</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9390234822394244</v>
+        <v>0.9906849403358111</v>
       </c>
       <c r="D14">
-        <v>0.9711421462777179</v>
+        <v>1.010852339753477</v>
       </c>
       <c r="E14">
-        <v>0.9430971516796772</v>
+        <v>0.9993504766745795</v>
       </c>
       <c r="F14">
-        <v>0.9435939629525572</v>
+        <v>1.006044804311509</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023875553704167</v>
+        <v>1.039769524207821</v>
       </c>
       <c r="J14">
-        <v>0.9712126376593401</v>
+        <v>1.020486653701479</v>
       </c>
       <c r="K14">
-        <v>0.9866473155023012</v>
+        <v>1.025589162646851</v>
       </c>
       <c r="L14">
-        <v>0.9591968444113228</v>
+        <v>1.014301637414806</v>
       </c>
       <c r="M14">
-        <v>0.9596827148629181</v>
+        <v>1.020870438287938</v>
       </c>
       <c r="N14">
-        <v>0.972591871004463</v>
+        <v>1.010510742841561</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.940488474694136</v>
+        <v>0.9912143725676936</v>
       </c>
       <c r="D15">
-        <v>0.9722672592442814</v>
+        <v>1.01122612251138</v>
       </c>
       <c r="E15">
-        <v>0.9445083506982352</v>
+        <v>0.9999160616047461</v>
       </c>
       <c r="F15">
-        <v>0.9451144139252677</v>
+        <v>1.006629818342159</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02439648499332</v>
+        <v>1.03993766889699</v>
       </c>
       <c r="J15">
-        <v>0.9723975431297436</v>
+        <v>1.020803935145022</v>
       </c>
       <c r="K15">
-        <v>0.9876568774452442</v>
+        <v>1.025868621924142</v>
       </c>
       <c r="L15">
-        <v>0.9604802857988591</v>
+        <v>1.014767624644426</v>
       </c>
       <c r="M15">
-        <v>0.9610731500485042</v>
+        <v>1.021356540838768</v>
       </c>
       <c r="N15">
-        <v>0.9737784591765453</v>
+        <v>1.01061805303617</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9487933007439302</v>
+        <v>0.9942665278815116</v>
       </c>
       <c r="D16">
-        <v>0.9786506027836656</v>
+        <v>1.013382793659501</v>
       </c>
       <c r="E16">
-        <v>0.9525000741402997</v>
+        <v>1.00317958349541</v>
       </c>
       <c r="F16">
-        <v>0.9537272664824983</v>
+        <v>1.010004869564179</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027344033671371</v>
+        <v>1.040904107504318</v>
       </c>
       <c r="J16">
-        <v>0.9791130936530505</v>
+        <v>1.022631965388193</v>
       </c>
       <c r="K16">
-        <v>0.9933784840189619</v>
+        <v>1.027478569033479</v>
       </c>
       <c r="L16">
-        <v>0.9677440102812548</v>
+        <v>1.01745515620085</v>
       </c>
       <c r="M16">
-        <v>0.9689461508507886</v>
+        <v>1.024159648283322</v>
       </c>
       <c r="N16">
-        <v>0.9805035465518795</v>
+        <v>1.011236313175933</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9538208559982226</v>
+        <v>0.9961558393522985</v>
       </c>
       <c r="D17">
-        <v>0.9825190449231791</v>
+        <v>1.014719339171507</v>
       </c>
       <c r="E17">
-        <v>0.9573314707796347</v>
+        <v>1.005202336653661</v>
       </c>
       <c r="F17">
-        <v>0.9589362824957844</v>
+        <v>1.012096239668878</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029123389213807</v>
+        <v>1.04149975492169</v>
       </c>
       <c r="J17">
-        <v>0.9831770696721386</v>
+        <v>1.023762548741261</v>
       </c>
       <c r="K17">
-        <v>0.9968406819030615</v>
+        <v>1.028474115031597</v>
       </c>
       <c r="L17">
-        <v>0.972131414492727</v>
+        <v>1.019119760805659</v>
       </c>
       <c r="M17">
-        <v>0.9737047677759585</v>
+        <v>1.025895450803401</v>
       </c>
       <c r="N17">
-        <v>0.9845732938830593</v>
+        <v>1.011618674692188</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9566927591964179</v>
+        <v>0.997248998729375</v>
       </c>
       <c r="D18">
-        <v>0.984730131174759</v>
+        <v>1.015493201385256</v>
       </c>
       <c r="E18">
-        <v>0.9600891265359008</v>
+        <v>1.006373649559133</v>
       </c>
       <c r="F18">
-        <v>0.9619102342088023</v>
+        <v>1.01330710276682</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03013793852771</v>
+        <v>1.041843453303336</v>
       </c>
       <c r="J18">
-        <v>0.9854979610717823</v>
+        <v>1.024416339957671</v>
       </c>
       <c r="K18">
-        <v>0.9988177529952742</v>
+        <v>1.029049755577436</v>
       </c>
       <c r="L18">
-        <v>0.974634271206109</v>
+        <v>1.020083265024029</v>
       </c>
       <c r="M18">
-        <v>0.9764205157292141</v>
+        <v>1.02690002468614</v>
       </c>
       <c r="N18">
-        <v>0.9868974812147002</v>
+        <v>1.011839779212451</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9576621556602007</v>
+        <v>0.9976202604020092</v>
       </c>
       <c r="D19">
-        <v>0.985476678817977</v>
+        <v>1.015756111069158</v>
       </c>
       <c r="E19">
-        <v>0.9610196026398579</v>
+        <v>1.00677161466904</v>
       </c>
       <c r="F19">
-        <v>0.9629138205766933</v>
+        <v>1.013718474256506</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030480069952922</v>
+        <v>1.041960019617927</v>
       </c>
       <c r="J19">
-        <v>0.9862812622271927</v>
+        <v>1.024638318917451</v>
       </c>
       <c r="K19">
-        <v>0.9994849846979221</v>
+        <v>1.029245189532813</v>
       </c>
       <c r="L19">
-        <v>0.9754785418836234</v>
+        <v>1.020410554169268</v>
       </c>
       <c r="M19">
-        <v>0.9773367888292089</v>
+        <v>1.027241240570578</v>
       </c>
       <c r="N19">
-        <v>0.9876818947475974</v>
+        <v>1.01191484862686</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9532878175408402</v>
+        <v>0.9959540543268762</v>
       </c>
       <c r="D20">
-        <v>0.9821087597211555</v>
+        <v>1.014576535532126</v>
       </c>
       <c r="E20">
-        <v>0.9568194624574139</v>
+        <v>1.004986201805034</v>
       </c>
       <c r="F20">
-        <v>0.9583841766811196</v>
+        <v>1.011872792026511</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028934930021777</v>
+        <v>1.041436235399289</v>
       </c>
       <c r="J20">
-        <v>0.9827462528211067</v>
+        <v>1.023641836268491</v>
       </c>
       <c r="K20">
-        <v>0.9964736735113069</v>
+        <v>1.028367826802929</v>
       </c>
       <c r="L20">
-        <v>0.9716666024291112</v>
+        <v>1.018941937859244</v>
       </c>
       <c r="M20">
-        <v>0.9732005104377008</v>
+        <v>1.025710036668549</v>
       </c>
       <c r="N20">
-        <v>0.9841418652226833</v>
+        <v>1.011577850579464</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9383191714342437</v>
+        <v>0.990431375237069</v>
       </c>
       <c r="D21">
-        <v>0.9706013384575078</v>
+        <v>1.010673354504936</v>
       </c>
       <c r="E21">
-        <v>0.9424185469486689</v>
+        <v>0.9990796489733992</v>
       </c>
       <c r="F21">
-        <v>0.9428628661439099</v>
+        <v>1.005764662758418</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023625013206951</v>
+        <v>1.039688942015158</v>
       </c>
       <c r="J21">
-        <v>0.9706429568506052</v>
+        <v>1.020334676768316</v>
       </c>
       <c r="K21">
-        <v>0.9861619356854815</v>
+        <v>1.02545529956786</v>
       </c>
       <c r="L21">
-        <v>0.9585795924073488</v>
+        <v>1.014078478690636</v>
       </c>
       <c r="M21">
-        <v>0.9590140745188408</v>
+        <v>1.020637638716653</v>
       </c>
       <c r="N21">
-        <v>0.9720213811836365</v>
+        <v>1.010459341395799</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9282458642813833</v>
+        <v>0.9868739544794689</v>
       </c>
       <c r="D22">
-        <v>0.9628740646302019</v>
+        <v>1.008164560641093</v>
       </c>
       <c r="E22">
-        <v>0.9327016443079484</v>
+        <v>0.9952835187308723</v>
       </c>
       <c r="F22">
-        <v>0.9323973264025843</v>
+        <v>1.001837293532674</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020035337455373</v>
+        <v>1.03855500830277</v>
       </c>
       <c r="J22">
-        <v>0.9624936894541843</v>
+        <v>1.018201272727796</v>
       </c>
       <c r="K22">
-        <v>0.9792187018668199</v>
+        <v>1.023575992763546</v>
       </c>
       <c r="L22">
-        <v>0.9497355506628715</v>
+        <v>1.010948992663597</v>
       </c>
       <c r="M22">
-        <v>0.9494384897369322</v>
+        <v>1.017372440935094</v>
       </c>
       <c r="N22">
-        <v>0.9638605408927785</v>
+        <v>1.009737777620916</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9336552066368744</v>
+        <v>0.9887681506447135</v>
       </c>
       <c r="D23">
-        <v>0.9670218080026414</v>
+        <v>1.009499865121678</v>
       </c>
       <c r="E23">
-        <v>0.937922233082603</v>
+        <v>0.9973040200412107</v>
       </c>
       <c r="F23">
-        <v>0.9380194529906042</v>
+        <v>1.003927805788113</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021964406505371</v>
+        <v>1.039159564634601</v>
       </c>
       <c r="J23">
-        <v>0.9668701447831828</v>
+        <v>1.019337510854535</v>
       </c>
       <c r="K23">
-        <v>0.9829474293760306</v>
+        <v>1.024576940270681</v>
       </c>
       <c r="L23">
-        <v>0.9544884692793204</v>
+        <v>1.012615019958824</v>
       </c>
       <c r="M23">
-        <v>0.9545834605061762</v>
+        <v>1.019110833933898</v>
       </c>
       <c r="N23">
-        <v>0.9682432112903308</v>
+        <v>1.010122079222246</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9535288607229867</v>
+        <v>0.9960452595681544</v>
       </c>
       <c r="D24">
-        <v>0.9822942891154091</v>
+        <v>1.01464108000031</v>
       </c>
       <c r="E24">
-        <v>0.9570510024862735</v>
+        <v>1.005083890124867</v>
       </c>
       <c r="F24">
-        <v>0.9586338472019594</v>
+        <v>1.011973786141971</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029020158263518</v>
+        <v>1.04146494865443</v>
       </c>
       <c r="J24">
-        <v>0.982941072614831</v>
+        <v>1.023696398494516</v>
       </c>
       <c r="K24">
-        <v>0.9966396389503255</v>
+        <v>1.028415869440099</v>
       </c>
       <c r="L24">
-        <v>0.9718768036930664</v>
+        <v>1.019022311310946</v>
       </c>
       <c r="M24">
-        <v>0.9734285464671155</v>
+        <v>1.025793841667408</v>
       </c>
       <c r="N24">
-        <v>0.9843369616828609</v>
+        <v>1.01159630316307</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9742427247097775</v>
+        <v>1.004145313055489</v>
       </c>
       <c r="D25">
-        <v>0.998260326392123</v>
+        <v>1.020384060414266</v>
       </c>
       <c r="E25">
-        <v>0.9769071892859403</v>
+        <v>1.013779989457647</v>
       </c>
       <c r="F25">
-        <v>0.9800605577690021</v>
+        <v>1.020960241396544</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036303308945224</v>
+        <v>1.043994523877935</v>
       </c>
       <c r="J25">
-        <v>0.9996691419831226</v>
+        <v>1.028533971705668</v>
       </c>
       <c r="K25">
-        <v>1.010885708716122</v>
+        <v>1.032673971540929</v>
       </c>
       <c r="L25">
-        <v>0.9898748916850365</v>
+        <v>1.026168089783268</v>
       </c>
       <c r="M25">
-        <v>0.9929765008066276</v>
+        <v>1.033241662393144</v>
       </c>
       <c r="N25">
-        <v>1.001088786828392</v>
+        <v>1.013232152588817</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.010353720491205</v>
+        <v>1.035907263186886</v>
       </c>
       <c r="D2">
-        <v>1.024799789979002</v>
+        <v>1.038331459212118</v>
       </c>
       <c r="E2">
-        <v>1.020475060455917</v>
+        <v>1.054705496752287</v>
       </c>
       <c r="F2">
-        <v>1.027873153187282</v>
+        <v>1.060881494940947</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045902759328849</v>
+        <v>1.038843777116449</v>
       </c>
       <c r="J2">
-        <v>1.032229102885957</v>
+        <v>1.04101847607822</v>
       </c>
       <c r="K2">
-        <v>1.035924106658828</v>
+        <v>1.04111979618313</v>
       </c>
       <c r="L2">
-        <v>1.031656328619423</v>
+        <v>1.057447970662354</v>
       </c>
       <c r="M2">
-        <v>1.038957362128126</v>
+        <v>1.063607068352655</v>
       </c>
       <c r="N2">
-        <v>1.014481303173415</v>
+        <v>1.017605315334003</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014726873994473</v>
+        <v>1.036816276142956</v>
       </c>
       <c r="D3">
-        <v>1.027917178552243</v>
+        <v>1.038997993348583</v>
       </c>
       <c r="E3">
-        <v>1.025208592279621</v>
+        <v>1.055792441743521</v>
       </c>
       <c r="F3">
-        <v>1.032757389845248</v>
+        <v>1.061993703966865</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047228543683447</v>
+        <v>1.039069726821165</v>
       </c>
       <c r="J3">
-        <v>1.03482396475349</v>
+        <v>1.041571436739696</v>
       </c>
       <c r="K3">
-        <v>1.038204892636755</v>
+        <v>1.041596700931714</v>
       </c>
       <c r="L3">
-        <v>1.035528773013848</v>
+        <v>1.058347512855038</v>
       </c>
       <c r="M3">
-        <v>1.042987611691649</v>
+        <v>1.064533038625436</v>
       </c>
       <c r="N3">
-        <v>1.015358209546473</v>
+        <v>1.017790803211627</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017497768616811</v>
+        <v>1.037404681548745</v>
       </c>
       <c r="D4">
-        <v>1.029895300842745</v>
+        <v>1.039429462923815</v>
       </c>
       <c r="E4">
-        <v>1.028216072209484</v>
+        <v>1.056496857419016</v>
       </c>
       <c r="F4">
-        <v>1.035859083260673</v>
+        <v>1.062714345452873</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048059867244499</v>
+        <v>1.03921489065121</v>
       </c>
       <c r="J4">
-        <v>1.036464228658899</v>
+        <v>1.041928820224057</v>
       </c>
       <c r="K4">
-        <v>1.039645823224197</v>
+        <v>1.041904785686857</v>
       </c>
       <c r="L4">
-        <v>1.037985475513668</v>
+        <v>1.058930069327272</v>
       </c>
       <c r="M4">
-        <v>1.045543158411764</v>
+        <v>1.065132577976236</v>
       </c>
       <c r="N4">
-        <v>1.015912358111809</v>
+        <v>1.01791063160903</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018649057726633</v>
+        <v>1.037652097373906</v>
       </c>
       <c r="D5">
-        <v>1.030717846350084</v>
+        <v>1.039610893991545</v>
       </c>
       <c r="E5">
-        <v>1.029467656018116</v>
+        <v>1.056793254128261</v>
       </c>
       <c r="F5">
-        <v>1.037149504969739</v>
+        <v>1.063017534314977</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048403154295844</v>
+        <v>1.039275667926345</v>
       </c>
       <c r="J5">
-        <v>1.037144788664938</v>
+        <v>1.042078963142856</v>
       </c>
       <c r="K5">
-        <v>1.040243476303624</v>
+        <v>1.042034182940321</v>
       </c>
       <c r="L5">
-        <v>1.039006958858951</v>
+        <v>1.059175093527305</v>
       </c>
       <c r="M5">
-        <v>1.046605432793508</v>
+        <v>1.065384713492624</v>
       </c>
       <c r="N5">
-        <v>1.016142236813293</v>
+        <v>1.017960960541901</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018841580767988</v>
+        <v>1.037693642498107</v>
       </c>
       <c r="D6">
-        <v>1.030855432371221</v>
+        <v>1.039641359450179</v>
       </c>
       <c r="E6">
-        <v>1.029677068500069</v>
+        <v>1.056843035693467</v>
       </c>
       <c r="F6">
-        <v>1.03736539398072</v>
+        <v>1.06306845460036</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048460434387054</v>
+        <v>1.039285858048791</v>
       </c>
       <c r="J6">
-        <v>1.037258537346642</v>
+        <v>1.042104166848523</v>
       </c>
       <c r="K6">
-        <v>1.040343355787233</v>
+        <v>1.042055902156011</v>
       </c>
       <c r="L6">
-        <v>1.039177818834502</v>
+        <v>1.059216241043503</v>
       </c>
       <c r="M6">
-        <v>1.046783097547602</v>
+        <v>1.065427053369383</v>
       </c>
       <c r="N6">
-        <v>1.016180656096668</v>
+        <v>1.017969408230076</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017513204987775</v>
+        <v>1.037407987334951</v>
       </c>
       <c r="D7">
-        <v>1.029906326952035</v>
+        <v>1.039431887054032</v>
       </c>
       <c r="E7">
-        <v>1.028232845417959</v>
+        <v>1.056500816863916</v>
       </c>
       <c r="F7">
-        <v>1.035876378419193</v>
+        <v>1.062718395769552</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048064478431153</v>
+        <v>1.039215703741439</v>
       </c>
       <c r="J7">
-        <v>1.036473357367232</v>
+        <v>1.041930826839305</v>
       </c>
       <c r="K7">
-        <v>1.039653840668991</v>
+        <v>1.041906515178006</v>
       </c>
       <c r="L7">
-        <v>1.037999168536864</v>
+        <v>1.058933342891645</v>
       </c>
       <c r="M7">
-        <v>1.045557399460789</v>
+        <v>1.065135946673599</v>
       </c>
       <c r="N7">
-        <v>1.015915441768062</v>
+        <v>1.017911304291483</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.011844131053784</v>
+        <v>1.036214423702497</v>
       </c>
       <c r="D8">
-        <v>1.025861586950821</v>
+        <v>1.03855668007773</v>
       </c>
       <c r="E8">
-        <v>1.022086572286906</v>
+        <v>1.055072608999507</v>
       </c>
       <c r="F8">
-        <v>1.029536293385682</v>
+        <v>1.061257170463323</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04635640658107</v>
+        <v>1.038920353101081</v>
       </c>
       <c r="J8">
-        <v>1.033114251437873</v>
+        <v>1.041205438018786</v>
       </c>
       <c r="K8">
-        <v>1.036702280846055</v>
+        <v>1.041281072357646</v>
       </c>
       <c r="L8">
-        <v>1.032975452413991</v>
+        <v>1.057751872904646</v>
       </c>
       <c r="M8">
-        <v>1.040330504901369</v>
+        <v>1.063919926448757</v>
       </c>
       <c r="N8">
-        <v>1.014780461490534</v>
+        <v>1.017668041942899</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.001380681347746</v>
+        <v>1.034112883006433</v>
       </c>
       <c r="D9">
-        <v>1.018421566723118</v>
+        <v>1.037015865977025</v>
       </c>
       <c r="E9">
-        <v>1.010807256171939</v>
+        <v>1.052564290736967</v>
       </c>
       <c r="F9">
-        <v>1.017889148053745</v>
+        <v>1.058689740884968</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0431358949998</v>
+        <v>1.038391956347688</v>
       </c>
       <c r="J9">
-        <v>1.026884778228399</v>
+        <v>1.039924035228502</v>
       </c>
       <c r="K9">
-        <v>1.031222673517664</v>
+        <v>1.040175133426568</v>
       </c>
       <c r="L9">
-        <v>1.023727393276515</v>
+        <v>1.055673763881989</v>
       </c>
       <c r="M9">
-        <v>1.030698503875614</v>
+        <v>1.06178003597697</v>
       </c>
       <c r="N9">
-        <v>1.012674518480276</v>
+        <v>1.01723790593172</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9940518032508152</v>
+        <v>1.032713028704363</v>
       </c>
       <c r="D10">
-        <v>1.013230966634159</v>
+        <v>1.035989677752668</v>
       </c>
       <c r="E10">
-        <v>1.002949821125793</v>
+        <v>1.050897730856612</v>
       </c>
       <c r="F10">
-        <v>1.009767288054699</v>
+        <v>1.056983150274158</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040836282990707</v>
+        <v>1.038034371886162</v>
       </c>
       <c r="J10">
-        <v>1.022503422889466</v>
+        <v>1.039067677376794</v>
       </c>
       <c r="K10">
-        <v>1.027365371612419</v>
+        <v>1.039435313207637</v>
       </c>
       <c r="L10">
-        <v>1.017266019112598</v>
+        <v>1.054290932603561</v>
       </c>
       <c r="M10">
-        <v>1.023962402375375</v>
+        <v>1.060355416455629</v>
       </c>
       <c r="N10">
-        <v>1.011192839505904</v>
+        <v>1.016950174622368</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9907861155202042</v>
+        <v>1.032107164432507</v>
       </c>
       <c r="D11">
-        <v>1.010923762829482</v>
+        <v>1.035545583994066</v>
       </c>
       <c r="E11">
-        <v>0.9994585492499376</v>
+        <v>1.050177437774873</v>
       </c>
       <c r="F11">
-        <v>1.006156591676226</v>
+        <v>1.056245376102465</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039801668110815</v>
+        <v>1.037878277347312</v>
       </c>
       <c r="J11">
-        <v>1.020547290728752</v>
+        <v>1.038696378675515</v>
       </c>
       <c r="K11">
-        <v>1.025642571944668</v>
+        <v>1.039114372963054</v>
       </c>
       <c r="L11">
-        <v>1.014390683767692</v>
+        <v>1.053692766843949</v>
       </c>
       <c r="M11">
-        <v>1.020963330205538</v>
+        <v>1.059739014334703</v>
       </c>
       <c r="N11">
-        <v>1.010531251392402</v>
+        <v>1.016825356655463</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9895584598752715</v>
+        <v>1.031882162550099</v>
       </c>
       <c r="D12">
-        <v>1.010057351504319</v>
+        <v>1.03538066690742</v>
       </c>
       <c r="E12">
-        <v>0.9981475622969158</v>
+        <v>1.049910090262043</v>
       </c>
       <c r="F12">
-        <v>1.004800470654448</v>
+        <v>1.05597151320477</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039411281019501</v>
+        <v>1.037820108261565</v>
       </c>
       <c r="J12">
-        <v>1.019811393996805</v>
+        <v>1.038558388875827</v>
       </c>
       <c r="K12">
-        <v>1.02499437220621</v>
+        <v>1.038995073078883</v>
       </c>
       <c r="L12">
-        <v>1.013310338350385</v>
+        <v>1.053470673303561</v>
       </c>
       <c r="M12">
-        <v>1.019836275513891</v>
+        <v>1.059510125763966</v>
       </c>
       <c r="N12">
-        <v>1.010282356691346</v>
+        <v>1.016778959686866</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9898224714765127</v>
+        <v>1.031930424256169</v>
       </c>
       <c r="D13">
-        <v>1.010243633256221</v>
+        <v>1.0354160403938</v>
       </c>
       <c r="E13">
-        <v>0.9984294284547103</v>
+        <v>1.049967428091417</v>
       </c>
       <c r="F13">
-        <v>1.005092053849691</v>
+        <v>1.056030249607192</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039495299875083</v>
+        <v>1.037832594257224</v>
       </c>
       <c r="J13">
-        <v>1.019969674724247</v>
+        <v>1.038587991445227</v>
       </c>
       <c r="K13">
-        <v>1.025133794092774</v>
+        <v>1.039020667296919</v>
       </c>
       <c r="L13">
-        <v>1.013542644839133</v>
+        <v>1.053518308960101</v>
       </c>
       <c r="M13">
-        <v>1.020078635651197</v>
+        <v>1.059559219937386</v>
       </c>
       <c r="N13">
-        <v>1.010335890499626</v>
+        <v>1.016788913528739</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9906849403358111</v>
+        <v>1.032088564823545</v>
       </c>
       <c r="D14">
-        <v>1.010852339753477</v>
+        <v>1.035531951091667</v>
       </c>
       <c r="E14">
-        <v>0.9993504766745795</v>
+        <v>1.050155334635407</v>
       </c>
       <c r="F14">
-        <v>1.006044804311509</v>
+        <v>1.056222734850499</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039769524207821</v>
+        <v>1.037873472918131</v>
       </c>
       <c r="J14">
-        <v>1.020486653701479</v>
+        <v>1.038684973879309</v>
       </c>
       <c r="K14">
-        <v>1.025589162646851</v>
+        <v>1.039104513396235</v>
       </c>
       <c r="L14">
-        <v>1.014301637414806</v>
+        <v>1.053674406646942</v>
       </c>
       <c r="M14">
-        <v>1.020870438287938</v>
+        <v>1.059720092891145</v>
       </c>
       <c r="N14">
-        <v>1.010510742841561</v>
+        <v>1.016821522159802</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9912143725676936</v>
+        <v>1.032186006177546</v>
       </c>
       <c r="D15">
-        <v>1.01122612251138</v>
+        <v>1.035603372715428</v>
       </c>
       <c r="E15">
-        <v>0.9999160616047461</v>
+        <v>1.050271136757696</v>
       </c>
       <c r="F15">
-        <v>1.006629818342159</v>
+        <v>1.056341355129157</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03993766889699</v>
+        <v>1.037898634627562</v>
       </c>
       <c r="J15">
-        <v>1.020803935145022</v>
+        <v>1.038744718314872</v>
       </c>
       <c r="K15">
-        <v>1.025868621924142</v>
+        <v>1.039156162055103</v>
       </c>
       <c r="L15">
-        <v>1.014767624644426</v>
+        <v>1.053770595765007</v>
       </c>
       <c r="M15">
-        <v>1.021356540838768</v>
+        <v>1.059819221397072</v>
       </c>
       <c r="N15">
-        <v>1.01061805303617</v>
+        <v>1.016841608914796</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9942665278815116</v>
+        <v>1.032753243922248</v>
       </c>
       <c r="D16">
-        <v>1.013382793659501</v>
+        <v>1.036019156213033</v>
       </c>
       <c r="E16">
-        <v>1.00317958349541</v>
+        <v>1.050945562562265</v>
       </c>
       <c r="F16">
-        <v>1.010004869564179</v>
+        <v>1.057032139036959</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040904107504318</v>
+        <v>1.0380447048932</v>
       </c>
       <c r="J16">
-        <v>1.022631965388193</v>
+        <v>1.039092308982801</v>
       </c>
       <c r="K16">
-        <v>1.027478569033479</v>
+        <v>1.039456600519224</v>
       </c>
       <c r="L16">
-        <v>1.01745515620085</v>
+        <v>1.054330643759144</v>
       </c>
       <c r="M16">
-        <v>1.024159648283322</v>
+        <v>1.060396334917061</v>
       </c>
       <c r="N16">
-        <v>1.011236313175933</v>
+        <v>1.016958453592834</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9961558393522985</v>
+        <v>1.033109133158124</v>
       </c>
       <c r="D17">
-        <v>1.014719339171507</v>
+        <v>1.036280034648819</v>
       </c>
       <c r="E17">
-        <v>1.005202336653661</v>
+        <v>1.051368970600548</v>
       </c>
       <c r="F17">
-        <v>1.012096239668878</v>
+        <v>1.057465768609586</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04149975492169</v>
+        <v>1.038135994357103</v>
       </c>
       <c r="J17">
-        <v>1.023762548741261</v>
+        <v>1.039310212707047</v>
       </c>
       <c r="K17">
-        <v>1.028474115031597</v>
+        <v>1.039644899330666</v>
       </c>
       <c r="L17">
-        <v>1.019119760805659</v>
+        <v>1.054682110419027</v>
       </c>
       <c r="M17">
-        <v>1.025895450803401</v>
+        <v>1.060758468419793</v>
       </c>
       <c r="N17">
-        <v>1.011618674692188</v>
+        <v>1.017031686230657</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.997248998729375</v>
+        <v>1.033316744475955</v>
       </c>
       <c r="D18">
-        <v>1.015493201385256</v>
+        <v>1.036432224912237</v>
       </c>
       <c r="E18">
-        <v>1.006373649559133</v>
+        <v>1.051616066453581</v>
       </c>
       <c r="F18">
-        <v>1.01330710276682</v>
+        <v>1.057718812274915</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041843453303336</v>
+        <v>1.038189120541358</v>
       </c>
       <c r="J18">
-        <v>1.024416339957671</v>
+        <v>1.039437264928033</v>
       </c>
       <c r="K18">
-        <v>1.029049755577436</v>
+        <v>1.039754673556339</v>
       </c>
       <c r="L18">
-        <v>1.020083265024029</v>
+        <v>1.054887173743499</v>
       </c>
       <c r="M18">
-        <v>1.02690002468614</v>
+        <v>1.060969739849396</v>
       </c>
       <c r="N18">
-        <v>1.011839779212451</v>
+        <v>1.017074379530956</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9976202604020092</v>
+        <v>1.033387539152582</v>
       </c>
       <c r="D19">
-        <v>1.015756111069158</v>
+        <v>1.036484121942704</v>
       </c>
       <c r="E19">
-        <v>1.00677161466904</v>
+        <v>1.051700341642678</v>
       </c>
       <c r="F19">
-        <v>1.013718474256506</v>
+        <v>1.057805113098659</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041960019617927</v>
+        <v>1.038207214591192</v>
       </c>
       <c r="J19">
-        <v>1.024638318917451</v>
+        <v>1.039480578401932</v>
       </c>
       <c r="K19">
-        <v>1.029245189532813</v>
+        <v>1.039792093991533</v>
       </c>
       <c r="L19">
-        <v>1.020410554169268</v>
+        <v>1.054957104996451</v>
       </c>
       <c r="M19">
-        <v>1.027241240570578</v>
+        <v>1.061041785582729</v>
       </c>
       <c r="N19">
-        <v>1.01191484862686</v>
+        <v>1.017088933092515</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9959540543268762</v>
+        <v>1.033070946797841</v>
       </c>
       <c r="D20">
-        <v>1.014576535532126</v>
+        <v>1.036252042341139</v>
       </c>
       <c r="E20">
-        <v>1.004986201805034</v>
+        <v>1.051323529568401</v>
       </c>
       <c r="F20">
-        <v>1.011872792026511</v>
+        <v>1.057419232375766</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041436235399289</v>
+        <v>1.038126212417312</v>
       </c>
       <c r="J20">
-        <v>1.023641836268491</v>
+        <v>1.039286838590607</v>
       </c>
       <c r="K20">
-        <v>1.028367826802929</v>
+        <v>1.03962470257019</v>
       </c>
       <c r="L20">
-        <v>1.018941937859244</v>
+        <v>1.054644395291678</v>
       </c>
       <c r="M20">
-        <v>1.025710036668549</v>
+        <v>1.060719610256058</v>
       </c>
       <c r="N20">
-        <v>1.011577850579464</v>
+        <v>1.017023831341122</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.990431375237069</v>
+        <v>1.032041995172743</v>
       </c>
       <c r="D21">
-        <v>1.010673354504936</v>
+        <v>1.035497817191158</v>
       </c>
       <c r="E21">
-        <v>0.9990796489733992</v>
+        <v>1.050099995279036</v>
       </c>
       <c r="F21">
-        <v>1.005764662758418</v>
+        <v>1.056166047791918</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039688942015158</v>
+        <v>1.037861440375148</v>
       </c>
       <c r="J21">
-        <v>1.020334676768316</v>
+        <v>1.038656416977274</v>
       </c>
       <c r="K21">
-        <v>1.02545529956786</v>
+        <v>1.039079825243814</v>
       </c>
       <c r="L21">
-        <v>1.014078478690636</v>
+        <v>1.053628437230569</v>
       </c>
       <c r="M21">
-        <v>1.020637638716653</v>
+        <v>1.059672717863306</v>
       </c>
       <c r="N21">
-        <v>1.010459341395799</v>
+        <v>1.016811920667377</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9868739544794689</v>
+        <v>1.031395302086075</v>
       </c>
       <c r="D22">
-        <v>1.008164560641093</v>
+        <v>1.035023832752957</v>
       </c>
       <c r="E22">
-        <v>0.9952835187308723</v>
+        <v>1.04933187617053</v>
       </c>
       <c r="F22">
-        <v>1.001837293532674</v>
+        <v>1.055379158347524</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03855500830277</v>
+        <v>1.03769387655955</v>
       </c>
       <c r="J22">
-        <v>1.018201272727796</v>
+        <v>1.038259624285951</v>
       </c>
       <c r="K22">
-        <v>1.023575992763546</v>
+        <v>1.038736728224435</v>
       </c>
       <c r="L22">
-        <v>1.010948992663597</v>
+        <v>1.052990195685192</v>
       </c>
       <c r="M22">
-        <v>1.017372440935094</v>
+        <v>1.059014903856776</v>
       </c>
       <c r="N22">
-        <v>1.009737777620916</v>
+        <v>1.016678487344919</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9887681506447135</v>
+        <v>1.0317381024178</v>
       </c>
       <c r="D23">
-        <v>1.009499865121678</v>
+        <v>1.035275078978475</v>
       </c>
       <c r="E23">
-        <v>0.9973040200412107</v>
+        <v>1.049738960056504</v>
       </c>
       <c r="F23">
-        <v>1.003927805788113</v>
+        <v>1.055796204867184</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039159564634601</v>
+        <v>1.037782808602942</v>
       </c>
       <c r="J23">
-        <v>1.019337510854535</v>
+        <v>1.038470011327365</v>
       </c>
       <c r="K23">
-        <v>1.024576940270681</v>
+        <v>1.038918658638959</v>
       </c>
       <c r="L23">
-        <v>1.012615019958824</v>
+        <v>1.053328489107249</v>
       </c>
       <c r="M23">
-        <v>1.019110833933898</v>
+        <v>1.05936358463039</v>
       </c>
       <c r="N23">
-        <v>1.010122079222246</v>
+        <v>1.016749241416465</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9960452595681544</v>
+        <v>1.033088201486478</v>
       </c>
       <c r="D24">
-        <v>1.01464108000031</v>
+        <v>1.036264690785141</v>
       </c>
       <c r="E24">
-        <v>1.005083890124867</v>
+        <v>1.051344062015863</v>
       </c>
       <c r="F24">
-        <v>1.011973786141971</v>
+        <v>1.057440259741707</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04146494865443</v>
+        <v>1.038130632830021</v>
       </c>
       <c r="J24">
-        <v>1.023696398494516</v>
+        <v>1.039297400493997</v>
       </c>
       <c r="K24">
-        <v>1.028415869440099</v>
+        <v>1.039633828793946</v>
       </c>
       <c r="L24">
-        <v>1.019022311310946</v>
+        <v>1.054661436952664</v>
       </c>
       <c r="M24">
-        <v>1.025793841667408</v>
+        <v>1.060737168448272</v>
       </c>
       <c r="N24">
-        <v>1.01159630316307</v>
+        <v>1.017027380695773</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.004145313055489</v>
+        <v>1.034655978558912</v>
       </c>
       <c r="D25">
-        <v>1.020384060414266</v>
+        <v>1.037414028597893</v>
       </c>
       <c r="E25">
-        <v>1.013779989457647</v>
+        <v>1.053211756886982</v>
       </c>
       <c r="F25">
-        <v>1.020960241396544</v>
+        <v>1.059352598739941</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043994523877935</v>
+        <v>1.03852949916174</v>
       </c>
       <c r="J25">
-        <v>1.028533971705668</v>
+        <v>1.040255680148291</v>
       </c>
       <c r="K25">
-        <v>1.032673971540929</v>
+        <v>1.04046149407286</v>
       </c>
       <c r="L25">
-        <v>1.026168089783268</v>
+        <v>1.056210552925497</v>
       </c>
       <c r="M25">
-        <v>1.033241662393144</v>
+        <v>1.062332903173696</v>
       </c>
       <c r="N25">
-        <v>1.013232152588817</v>
+        <v>1.017349279449784</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035907263186886</v>
+        <v>1.010353720491205</v>
       </c>
       <c r="D2">
-        <v>1.038331459212118</v>
+        <v>1.024799789979002</v>
       </c>
       <c r="E2">
-        <v>1.054705496752287</v>
+        <v>1.020475060455917</v>
       </c>
       <c r="F2">
-        <v>1.060881494940947</v>
+        <v>1.027873153187281</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038843777116449</v>
+        <v>1.045902759328848</v>
       </c>
       <c r="J2">
-        <v>1.04101847607822</v>
+        <v>1.032229102885956</v>
       </c>
       <c r="K2">
-        <v>1.04111979618313</v>
+        <v>1.035924106658827</v>
       </c>
       <c r="L2">
-        <v>1.057447970662354</v>
+        <v>1.031656328619422</v>
       </c>
       <c r="M2">
-        <v>1.063607068352655</v>
+        <v>1.038957362128125</v>
       </c>
       <c r="N2">
-        <v>1.017605315334003</v>
+        <v>1.014481303173415</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036816276142956</v>
+        <v>1.014726873994473</v>
       </c>
       <c r="D3">
-        <v>1.038997993348583</v>
+        <v>1.027917178552243</v>
       </c>
       <c r="E3">
-        <v>1.055792441743521</v>
+        <v>1.025208592279621</v>
       </c>
       <c r="F3">
-        <v>1.061993703966865</v>
+        <v>1.032757389845247</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039069726821165</v>
+        <v>1.047228543683447</v>
       </c>
       <c r="J3">
-        <v>1.041571436739696</v>
+        <v>1.034823964753489</v>
       </c>
       <c r="K3">
-        <v>1.041596700931714</v>
+        <v>1.038204892636755</v>
       </c>
       <c r="L3">
-        <v>1.058347512855038</v>
+        <v>1.035528773013847</v>
       </c>
       <c r="M3">
-        <v>1.064533038625436</v>
+        <v>1.042987611691648</v>
       </c>
       <c r="N3">
-        <v>1.017790803211627</v>
+        <v>1.015358209546473</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037404681548745</v>
+        <v>1.017497768616812</v>
       </c>
       <c r="D4">
-        <v>1.039429462923815</v>
+        <v>1.029895300842745</v>
       </c>
       <c r="E4">
-        <v>1.056496857419016</v>
+        <v>1.028216072209484</v>
       </c>
       <c r="F4">
-        <v>1.062714345452873</v>
+        <v>1.035859083260674</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03921489065121</v>
+        <v>1.048059867244499</v>
       </c>
       <c r="J4">
-        <v>1.041928820224057</v>
+        <v>1.0364642286589</v>
       </c>
       <c r="K4">
-        <v>1.041904785686857</v>
+        <v>1.039645823224197</v>
       </c>
       <c r="L4">
-        <v>1.058930069327272</v>
+        <v>1.037985475513668</v>
       </c>
       <c r="M4">
-        <v>1.065132577976236</v>
+        <v>1.045543158411764</v>
       </c>
       <c r="N4">
-        <v>1.01791063160903</v>
+        <v>1.015912358111809</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037652097373906</v>
+        <v>1.018649057726633</v>
       </c>
       <c r="D5">
-        <v>1.039610893991545</v>
+        <v>1.030717846350083</v>
       </c>
       <c r="E5">
-        <v>1.056793254128261</v>
+        <v>1.029467656018116</v>
       </c>
       <c r="F5">
-        <v>1.063017534314977</v>
+        <v>1.037149504969739</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039275667926345</v>
+        <v>1.048403154295844</v>
       </c>
       <c r="J5">
-        <v>1.042078963142856</v>
+        <v>1.037144788664938</v>
       </c>
       <c r="K5">
-        <v>1.042034182940321</v>
+        <v>1.040243476303623</v>
       </c>
       <c r="L5">
-        <v>1.059175093527305</v>
+        <v>1.039006958858951</v>
       </c>
       <c r="M5">
-        <v>1.065384713492624</v>
+        <v>1.046605432793508</v>
       </c>
       <c r="N5">
-        <v>1.017960960541901</v>
+        <v>1.016142236813293</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037693642498107</v>
+        <v>1.018841580767988</v>
       </c>
       <c r="D6">
-        <v>1.039641359450179</v>
+        <v>1.030855432371221</v>
       </c>
       <c r="E6">
-        <v>1.056843035693467</v>
+        <v>1.029677068500068</v>
       </c>
       <c r="F6">
-        <v>1.06306845460036</v>
+        <v>1.03736539398072</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039285858048791</v>
+        <v>1.048460434387054</v>
       </c>
       <c r="J6">
-        <v>1.042104166848523</v>
+        <v>1.037258537346642</v>
       </c>
       <c r="K6">
-        <v>1.042055902156011</v>
+        <v>1.040343355787233</v>
       </c>
       <c r="L6">
-        <v>1.059216241043503</v>
+        <v>1.039177818834502</v>
       </c>
       <c r="M6">
-        <v>1.065427053369383</v>
+        <v>1.046783097547602</v>
       </c>
       <c r="N6">
-        <v>1.017969408230076</v>
+        <v>1.016180656096668</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037407987334951</v>
+        <v>1.017513204987775</v>
       </c>
       <c r="D7">
-        <v>1.039431887054032</v>
+        <v>1.029906326952034</v>
       </c>
       <c r="E7">
-        <v>1.056500816863916</v>
+        <v>1.02823284541796</v>
       </c>
       <c r="F7">
-        <v>1.062718395769552</v>
+        <v>1.035876378419194</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039215703741439</v>
+        <v>1.048064478431153</v>
       </c>
       <c r="J7">
-        <v>1.041930826839305</v>
+        <v>1.036473357367231</v>
       </c>
       <c r="K7">
-        <v>1.041906515178006</v>
+        <v>1.039653840668991</v>
       </c>
       <c r="L7">
-        <v>1.058933342891645</v>
+        <v>1.037999168536865</v>
       </c>
       <c r="M7">
-        <v>1.065135946673599</v>
+        <v>1.045557399460789</v>
       </c>
       <c r="N7">
-        <v>1.017911304291483</v>
+        <v>1.015915441768062</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036214423702497</v>
+        <v>1.011844131053784</v>
       </c>
       <c r="D8">
-        <v>1.03855668007773</v>
+        <v>1.025861586950821</v>
       </c>
       <c r="E8">
-        <v>1.055072608999507</v>
+        <v>1.022086572286906</v>
       </c>
       <c r="F8">
-        <v>1.061257170463323</v>
+        <v>1.029536293385682</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038920353101081</v>
+        <v>1.04635640658107</v>
       </c>
       <c r="J8">
-        <v>1.041205438018786</v>
+        <v>1.033114251437873</v>
       </c>
       <c r="K8">
-        <v>1.041281072357646</v>
+        <v>1.036702280846054</v>
       </c>
       <c r="L8">
-        <v>1.057751872904646</v>
+        <v>1.032975452413992</v>
       </c>
       <c r="M8">
-        <v>1.063919926448757</v>
+        <v>1.04033050490137</v>
       </c>
       <c r="N8">
-        <v>1.017668041942899</v>
+        <v>1.014780461490534</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034112883006433</v>
+        <v>1.001380681347747</v>
       </c>
       <c r="D9">
-        <v>1.037015865977025</v>
+        <v>1.018421566723118</v>
       </c>
       <c r="E9">
-        <v>1.052564290736967</v>
+        <v>1.01080725617194</v>
       </c>
       <c r="F9">
-        <v>1.058689740884968</v>
+        <v>1.017889148053746</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038391956347688</v>
+        <v>1.043135894999801</v>
       </c>
       <c r="J9">
-        <v>1.039924035228502</v>
+        <v>1.0268847782284</v>
       </c>
       <c r="K9">
-        <v>1.040175133426568</v>
+        <v>1.031222673517664</v>
       </c>
       <c r="L9">
-        <v>1.055673763881989</v>
+        <v>1.023727393276515</v>
       </c>
       <c r="M9">
-        <v>1.06178003597697</v>
+        <v>1.030698503875614</v>
       </c>
       <c r="N9">
-        <v>1.01723790593172</v>
+        <v>1.012674518480276</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032713028704363</v>
+        <v>0.9940518032508151</v>
       </c>
       <c r="D10">
-        <v>1.035989677752668</v>
+        <v>1.013230966634159</v>
       </c>
       <c r="E10">
-        <v>1.050897730856612</v>
+        <v>1.002949821125792</v>
       </c>
       <c r="F10">
-        <v>1.056983150274158</v>
+        <v>1.009767288054698</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038034371886162</v>
+        <v>1.040836282990706</v>
       </c>
       <c r="J10">
-        <v>1.039067677376794</v>
+        <v>1.022503422889466</v>
       </c>
       <c r="K10">
-        <v>1.039435313207637</v>
+        <v>1.027365371612419</v>
       </c>
       <c r="L10">
-        <v>1.054290932603561</v>
+        <v>1.017266019112596</v>
       </c>
       <c r="M10">
-        <v>1.060355416455629</v>
+        <v>1.023962402375374</v>
       </c>
       <c r="N10">
-        <v>1.016950174622368</v>
+        <v>1.011192839505904</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032107164432507</v>
+        <v>0.9907861155202037</v>
       </c>
       <c r="D11">
-        <v>1.035545583994066</v>
+        <v>1.010923762829482</v>
       </c>
       <c r="E11">
-        <v>1.050177437774873</v>
+        <v>0.9994585492499376</v>
       </c>
       <c r="F11">
-        <v>1.056245376102465</v>
+        <v>1.006156591676226</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037878277347312</v>
+        <v>1.039801668110814</v>
       </c>
       <c r="J11">
-        <v>1.038696378675515</v>
+        <v>1.020547290728752</v>
       </c>
       <c r="K11">
-        <v>1.039114372963054</v>
+        <v>1.025642571944667</v>
       </c>
       <c r="L11">
-        <v>1.053692766843949</v>
+        <v>1.014390683767692</v>
       </c>
       <c r="M11">
-        <v>1.059739014334703</v>
+        <v>1.020963330205538</v>
       </c>
       <c r="N11">
-        <v>1.016825356655463</v>
+        <v>1.010531251392402</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031882162550099</v>
+        <v>0.9895584598752718</v>
       </c>
       <c r="D12">
-        <v>1.03538066690742</v>
+        <v>1.010057351504319</v>
       </c>
       <c r="E12">
-        <v>1.049910090262043</v>
+        <v>0.9981475622969164</v>
       </c>
       <c r="F12">
-        <v>1.05597151320477</v>
+        <v>1.004800470654449</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037820108261565</v>
+        <v>1.039411281019501</v>
       </c>
       <c r="J12">
-        <v>1.038558388875827</v>
+        <v>1.019811393996806</v>
       </c>
       <c r="K12">
-        <v>1.038995073078883</v>
+        <v>1.024994372206211</v>
       </c>
       <c r="L12">
-        <v>1.053470673303561</v>
+        <v>1.013310338350385</v>
       </c>
       <c r="M12">
-        <v>1.059510125763966</v>
+        <v>1.019836275513891</v>
       </c>
       <c r="N12">
-        <v>1.016778959686866</v>
+        <v>1.010282356691346</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031930424256169</v>
+        <v>0.9898224714765131</v>
       </c>
       <c r="D13">
-        <v>1.0354160403938</v>
+        <v>1.010243633256221</v>
       </c>
       <c r="E13">
-        <v>1.049967428091417</v>
+        <v>0.9984294284547103</v>
       </c>
       <c r="F13">
-        <v>1.056030249607192</v>
+        <v>1.005092053849691</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037832594257224</v>
+        <v>1.039495299875083</v>
       </c>
       <c r="J13">
-        <v>1.038587991445227</v>
+        <v>1.019969674724247</v>
       </c>
       <c r="K13">
-        <v>1.039020667296919</v>
+        <v>1.025133794092774</v>
       </c>
       <c r="L13">
-        <v>1.053518308960101</v>
+        <v>1.013542644839133</v>
       </c>
       <c r="M13">
-        <v>1.059559219937386</v>
+        <v>1.020078635651196</v>
       </c>
       <c r="N13">
-        <v>1.016788913528739</v>
+        <v>1.010335890499626</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032088564823545</v>
+        <v>0.9906849403358106</v>
       </c>
       <c r="D14">
-        <v>1.035531951091667</v>
+        <v>1.010852339753476</v>
       </c>
       <c r="E14">
-        <v>1.050155334635407</v>
+        <v>0.9993504766745799</v>
       </c>
       <c r="F14">
-        <v>1.056222734850499</v>
+        <v>1.006044804311509</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037873472918131</v>
+        <v>1.03976952420782</v>
       </c>
       <c r="J14">
-        <v>1.038684973879309</v>
+        <v>1.020486653701478</v>
       </c>
       <c r="K14">
-        <v>1.039104513396235</v>
+        <v>1.025589162646851</v>
       </c>
       <c r="L14">
-        <v>1.053674406646942</v>
+        <v>1.014301637414806</v>
       </c>
       <c r="M14">
-        <v>1.059720092891145</v>
+        <v>1.020870438287938</v>
       </c>
       <c r="N14">
-        <v>1.016821522159802</v>
+        <v>1.010510742841561</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032186006177546</v>
+        <v>0.991214372567693</v>
       </c>
       <c r="D15">
-        <v>1.035603372715428</v>
+        <v>1.01122612251138</v>
       </c>
       <c r="E15">
-        <v>1.050271136757696</v>
+        <v>0.9999160616047458</v>
       </c>
       <c r="F15">
-        <v>1.056341355129157</v>
+        <v>1.006629818342158</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037898634627562</v>
+        <v>1.039937668896989</v>
       </c>
       <c r="J15">
-        <v>1.038744718314872</v>
+        <v>1.020803935145022</v>
       </c>
       <c r="K15">
-        <v>1.039156162055103</v>
+        <v>1.025868621924141</v>
       </c>
       <c r="L15">
-        <v>1.053770595765007</v>
+        <v>1.014767624644426</v>
       </c>
       <c r="M15">
-        <v>1.059819221397072</v>
+        <v>1.021356540838768</v>
       </c>
       <c r="N15">
-        <v>1.016841608914796</v>
+        <v>1.01061805303617</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032753243922248</v>
+        <v>0.994266527881512</v>
       </c>
       <c r="D16">
-        <v>1.036019156213033</v>
+        <v>1.013382793659501</v>
       </c>
       <c r="E16">
-        <v>1.050945562562265</v>
+        <v>1.00317958349541</v>
       </c>
       <c r="F16">
-        <v>1.057032139036959</v>
+        <v>1.010004869564179</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0380447048932</v>
+        <v>1.040904107504319</v>
       </c>
       <c r="J16">
-        <v>1.039092308982801</v>
+        <v>1.022631965388194</v>
       </c>
       <c r="K16">
-        <v>1.039456600519224</v>
+        <v>1.02747856903348</v>
       </c>
       <c r="L16">
-        <v>1.054330643759144</v>
+        <v>1.01745515620085</v>
       </c>
       <c r="M16">
-        <v>1.060396334917061</v>
+        <v>1.024159648283322</v>
       </c>
       <c r="N16">
-        <v>1.016958453592834</v>
+        <v>1.011236313175933</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033109133158124</v>
+        <v>0.9961558393522999</v>
       </c>
       <c r="D17">
-        <v>1.036280034648819</v>
+        <v>1.014719339171508</v>
       </c>
       <c r="E17">
-        <v>1.051368970600548</v>
+        <v>1.005202336653662</v>
       </c>
       <c r="F17">
-        <v>1.057465768609586</v>
+        <v>1.012096239668879</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038135994357103</v>
+        <v>1.041499754921691</v>
       </c>
       <c r="J17">
-        <v>1.039310212707047</v>
+        <v>1.023762548741262</v>
       </c>
       <c r="K17">
-        <v>1.039644899330666</v>
+        <v>1.028474115031598</v>
       </c>
       <c r="L17">
-        <v>1.054682110419027</v>
+        <v>1.01911976080566</v>
       </c>
       <c r="M17">
-        <v>1.060758468419793</v>
+        <v>1.025895450803402</v>
       </c>
       <c r="N17">
-        <v>1.017031686230657</v>
+        <v>1.011618674692188</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033316744475955</v>
+        <v>0.9972489987293754</v>
       </c>
       <c r="D18">
-        <v>1.036432224912237</v>
+        <v>1.015493201385257</v>
       </c>
       <c r="E18">
-        <v>1.051616066453581</v>
+        <v>1.006373649559134</v>
       </c>
       <c r="F18">
-        <v>1.057718812274915</v>
+        <v>1.01330710276682</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038189120541358</v>
+        <v>1.041843453303337</v>
       </c>
       <c r="J18">
-        <v>1.039437264928033</v>
+        <v>1.024416339957671</v>
       </c>
       <c r="K18">
-        <v>1.039754673556339</v>
+        <v>1.029049755577437</v>
       </c>
       <c r="L18">
-        <v>1.054887173743499</v>
+        <v>1.020083265024029</v>
       </c>
       <c r="M18">
-        <v>1.060969739849396</v>
+        <v>1.02690002468614</v>
       </c>
       <c r="N18">
-        <v>1.017074379530956</v>
+        <v>1.011839779212451</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033387539152582</v>
+        <v>0.9976202604020096</v>
       </c>
       <c r="D19">
-        <v>1.036484121942704</v>
+        <v>1.015756111069159</v>
       </c>
       <c r="E19">
-        <v>1.051700341642678</v>
+        <v>1.006771614669041</v>
       </c>
       <c r="F19">
-        <v>1.057805113098659</v>
+        <v>1.013718474256506</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038207214591192</v>
+        <v>1.041960019617927</v>
       </c>
       <c r="J19">
-        <v>1.039480578401932</v>
+        <v>1.024638318917451</v>
       </c>
       <c r="K19">
-        <v>1.039792093991533</v>
+        <v>1.029245189532813</v>
       </c>
       <c r="L19">
-        <v>1.054957104996451</v>
+        <v>1.020410554169268</v>
       </c>
       <c r="M19">
-        <v>1.061041785582729</v>
+        <v>1.027241240570579</v>
       </c>
       <c r="N19">
-        <v>1.017088933092515</v>
+        <v>1.01191484862686</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033070946797841</v>
+        <v>0.9959540543268757</v>
       </c>
       <c r="D20">
-        <v>1.036252042341139</v>
+        <v>1.014576535532126</v>
       </c>
       <c r="E20">
-        <v>1.051323529568401</v>
+        <v>1.004986201805034</v>
       </c>
       <c r="F20">
-        <v>1.057419232375766</v>
+        <v>1.01187279202651</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038126212417312</v>
+        <v>1.041436235399289</v>
       </c>
       <c r="J20">
-        <v>1.039286838590607</v>
+        <v>1.023641836268491</v>
       </c>
       <c r="K20">
-        <v>1.03962470257019</v>
+        <v>1.028367826802929</v>
       </c>
       <c r="L20">
-        <v>1.054644395291678</v>
+        <v>1.018941937859243</v>
       </c>
       <c r="M20">
-        <v>1.060719610256058</v>
+        <v>1.025710036668549</v>
       </c>
       <c r="N20">
-        <v>1.017023831341122</v>
+        <v>1.011577850579463</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032041995172743</v>
+        <v>0.9904313752370693</v>
       </c>
       <c r="D21">
-        <v>1.035497817191158</v>
+        <v>1.010673354504936</v>
       </c>
       <c r="E21">
-        <v>1.050099995279036</v>
+        <v>0.9990796489733993</v>
       </c>
       <c r="F21">
-        <v>1.056166047791918</v>
+        <v>1.005764662758418</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037861440375148</v>
+        <v>1.039688942015158</v>
       </c>
       <c r="J21">
-        <v>1.038656416977274</v>
+        <v>1.020334676768316</v>
       </c>
       <c r="K21">
-        <v>1.039079825243814</v>
+        <v>1.02545529956786</v>
       </c>
       <c r="L21">
-        <v>1.053628437230569</v>
+        <v>1.014078478690636</v>
       </c>
       <c r="M21">
-        <v>1.059672717863306</v>
+        <v>1.020637638716653</v>
       </c>
       <c r="N21">
-        <v>1.016811920667377</v>
+        <v>1.010459341395799</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031395302086075</v>
+        <v>0.9868739544794681</v>
       </c>
       <c r="D22">
-        <v>1.035023832752957</v>
+        <v>1.008164560641092</v>
       </c>
       <c r="E22">
-        <v>1.04933187617053</v>
+        <v>0.9952835187308721</v>
       </c>
       <c r="F22">
-        <v>1.055379158347524</v>
+        <v>1.001837293532673</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03769387655955</v>
+        <v>1.038555008302769</v>
       </c>
       <c r="J22">
-        <v>1.038259624285951</v>
+        <v>1.018201272727795</v>
       </c>
       <c r="K22">
-        <v>1.038736728224435</v>
+        <v>1.023575992763545</v>
       </c>
       <c r="L22">
-        <v>1.052990195685192</v>
+        <v>1.010948992663596</v>
       </c>
       <c r="M22">
-        <v>1.059014903856776</v>
+        <v>1.017372440935093</v>
       </c>
       <c r="N22">
-        <v>1.016678487344919</v>
+        <v>1.009737777620915</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.0317381024178</v>
+        <v>0.9887681506447135</v>
       </c>
       <c r="D23">
-        <v>1.035275078978475</v>
+        <v>1.009499865121678</v>
       </c>
       <c r="E23">
-        <v>1.049738960056504</v>
+        <v>0.9973040200412107</v>
       </c>
       <c r="F23">
-        <v>1.055796204867184</v>
+        <v>1.003927805788113</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037782808602942</v>
+        <v>1.039159564634601</v>
       </c>
       <c r="J23">
-        <v>1.038470011327365</v>
+        <v>1.019337510854535</v>
       </c>
       <c r="K23">
-        <v>1.038918658638959</v>
+        <v>1.02457694027068</v>
       </c>
       <c r="L23">
-        <v>1.053328489107249</v>
+        <v>1.012615019958824</v>
       </c>
       <c r="M23">
-        <v>1.05936358463039</v>
+        <v>1.019110833933897</v>
       </c>
       <c r="N23">
-        <v>1.016749241416465</v>
+        <v>1.010122079222246</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033088201486478</v>
+        <v>0.9960452595681538</v>
       </c>
       <c r="D24">
-        <v>1.036264690785141</v>
+        <v>1.014641080000309</v>
       </c>
       <c r="E24">
-        <v>1.051344062015863</v>
+        <v>1.005083890124867</v>
       </c>
       <c r="F24">
-        <v>1.057440259741707</v>
+        <v>1.01197378614197</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038130632830021</v>
+        <v>1.041464948654429</v>
       </c>
       <c r="J24">
-        <v>1.039297400493997</v>
+        <v>1.023696398494516</v>
       </c>
       <c r="K24">
-        <v>1.039633828793946</v>
+        <v>1.028415869440099</v>
       </c>
       <c r="L24">
-        <v>1.054661436952664</v>
+        <v>1.019022311310945</v>
       </c>
       <c r="M24">
-        <v>1.060737168448272</v>
+        <v>1.025793841667407</v>
       </c>
       <c r="N24">
-        <v>1.017027380695773</v>
+        <v>1.01159630316307</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034655978558912</v>
+        <v>1.00414531305549</v>
       </c>
       <c r="D25">
-        <v>1.037414028597893</v>
+        <v>1.020384060414266</v>
       </c>
       <c r="E25">
-        <v>1.053211756886982</v>
+        <v>1.013779989457647</v>
       </c>
       <c r="F25">
-        <v>1.059352598739941</v>
+        <v>1.020960241396544</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03852949916174</v>
+        <v>1.043994523877935</v>
       </c>
       <c r="J25">
-        <v>1.040255680148291</v>
+        <v>1.028533971705669</v>
       </c>
       <c r="K25">
-        <v>1.04046149407286</v>
+        <v>1.032673971540929</v>
       </c>
       <c r="L25">
-        <v>1.056210552925497</v>
+        <v>1.026168089783269</v>
       </c>
       <c r="M25">
-        <v>1.062332903173696</v>
+        <v>1.033241662393144</v>
       </c>
       <c r="N25">
-        <v>1.017349279449784</v>
+        <v>1.013232152588817</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010353720491205</v>
+        <v>0.9981335419299531</v>
       </c>
       <c r="D2">
-        <v>1.024799789979002</v>
+        <v>1.019360281058686</v>
       </c>
       <c r="E2">
-        <v>1.020475060455917</v>
+        <v>1.01758306295209</v>
       </c>
       <c r="F2">
-        <v>1.027873153187281</v>
+        <v>1.024756017193477</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045902759328848</v>
+        <v>1.0463418178741</v>
       </c>
       <c r="J2">
-        <v>1.032229102885956</v>
+        <v>1.020370222111506</v>
       </c>
       <c r="K2">
-        <v>1.035924106658827</v>
+        <v>1.030556327832224</v>
       </c>
       <c r="L2">
-        <v>1.031656328619422</v>
+        <v>1.028802754346472</v>
       </c>
       <c r="M2">
-        <v>1.038957362128125</v>
+        <v>1.035880907290502</v>
       </c>
       <c r="N2">
-        <v>1.014481303173415</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010632021489544</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.036969713015114</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.032676156240014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014726873994473</v>
+        <v>1.002780931195178</v>
       </c>
       <c r="D3">
-        <v>1.027917178552243</v>
+        <v>1.022450715197919</v>
       </c>
       <c r="E3">
-        <v>1.025208592279621</v>
+        <v>1.021415204549974</v>
       </c>
       <c r="F3">
-        <v>1.032757389845247</v>
+        <v>1.028382177759848</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047228543683447</v>
+        <v>1.047414695304891</v>
       </c>
       <c r="J3">
-        <v>1.034823964753489</v>
+        <v>1.023196071242974</v>
       </c>
       <c r="K3">
-        <v>1.038204892636755</v>
+        <v>1.032804172885708</v>
       </c>
       <c r="L3">
-        <v>1.035528773013847</v>
+        <v>1.031781214505441</v>
       </c>
       <c r="M3">
-        <v>1.042987611691648</v>
+        <v>1.038664339428786</v>
       </c>
       <c r="N3">
-        <v>1.015358209546473</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011584965358258</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.03917262038709</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.034262920565721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017497768616812</v>
+        <v>1.005720067582998</v>
       </c>
       <c r="D4">
-        <v>1.029895300842745</v>
+        <v>1.024406211227935</v>
       </c>
       <c r="E4">
-        <v>1.028216072209484</v>
+        <v>1.023852705023001</v>
       </c>
       <c r="F4">
-        <v>1.035859083260674</v>
+        <v>1.030688815536573</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048059867244499</v>
+        <v>1.04807767839649</v>
       </c>
       <c r="J4">
-        <v>1.0364642286589</v>
+        <v>1.024978576657943</v>
       </c>
       <c r="K4">
-        <v>1.039645823224197</v>
+        <v>1.034218734896383</v>
       </c>
       <c r="L4">
-        <v>1.037985475513668</v>
+        <v>1.033671526252923</v>
       </c>
       <c r="M4">
-        <v>1.045543158411764</v>
+        <v>1.040430442145202</v>
       </c>
       <c r="N4">
-        <v>1.015912358111809</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012186231354244</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.040570373494126</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.035264055019512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018649057726633</v>
+        <v>1.006943269278181</v>
       </c>
       <c r="D5">
-        <v>1.030717846350083</v>
+        <v>1.025222066312108</v>
       </c>
       <c r="E5">
-        <v>1.029467656018116</v>
+        <v>1.0248696902547</v>
       </c>
       <c r="F5">
-        <v>1.037149504969739</v>
+        <v>1.031650771292072</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048403154295844</v>
+        <v>1.048351115452597</v>
       </c>
       <c r="J5">
-        <v>1.037144788664938</v>
+        <v>1.02572047680929</v>
       </c>
       <c r="K5">
-        <v>1.040243476303623</v>
+        <v>1.034808107625659</v>
       </c>
       <c r="L5">
-        <v>1.039006958858951</v>
+        <v>1.03445963217167</v>
       </c>
       <c r="M5">
-        <v>1.046605432793508</v>
+        <v>1.041166224677639</v>
       </c>
       <c r="N5">
-        <v>1.016142236813293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012437391194082</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.041152695743917</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.035688009751547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018841580767988</v>
+        <v>1.007151748700191</v>
       </c>
       <c r="D6">
-        <v>1.030855432371221</v>
+        <v>1.025363364262467</v>
       </c>
       <c r="E6">
-        <v>1.029677068500068</v>
+        <v>1.025042329755585</v>
       </c>
       <c r="F6">
-        <v>1.03736539398072</v>
+        <v>1.031813498376254</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048460434387054</v>
+        <v>1.048399096394116</v>
       </c>
       <c r="J6">
-        <v>1.037258537346642</v>
+        <v>1.025848334656705</v>
       </c>
       <c r="K6">
-        <v>1.040343355787233</v>
+        <v>1.034911379839309</v>
       </c>
       <c r="L6">
-        <v>1.039177818834502</v>
+        <v>1.034593882450314</v>
       </c>
       <c r="M6">
-        <v>1.046783097547602</v>
+        <v>1.041291019385901</v>
       </c>
       <c r="N6">
-        <v>1.016180656096668</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012481734833276</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.041251462292186</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.035769827605627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017513204987775</v>
+        <v>1.005747154259956</v>
       </c>
       <c r="D7">
-        <v>1.029906326952034</v>
+        <v>1.02443023187364</v>
       </c>
       <c r="E7">
-        <v>1.02823284541796</v>
+        <v>1.023872966716247</v>
       </c>
       <c r="F7">
-        <v>1.035876378419194</v>
+        <v>1.030706377728879</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048064478431153</v>
+        <v>1.048088011765839</v>
       </c>
       <c r="J7">
-        <v>1.036473357367231</v>
+        <v>1.024998943758494</v>
       </c>
       <c r="K7">
-        <v>1.039653840668991</v>
+        <v>1.034239576856456</v>
       </c>
       <c r="L7">
-        <v>1.037999168536865</v>
+        <v>1.033688649572951</v>
       </c>
       <c r="M7">
-        <v>1.045557399460789</v>
+        <v>1.040444925696233</v>
       </c>
       <c r="N7">
-        <v>1.015915441768062</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012196008525674</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.040581836252463</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.035299025744093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011844131053784</v>
+        <v>0.999731539070692</v>
       </c>
       <c r="D8">
-        <v>1.025861586950821</v>
+        <v>1.020429877190502</v>
       </c>
       <c r="E8">
-        <v>1.022086572286906</v>
+        <v>1.018895629969502</v>
       </c>
       <c r="F8">
-        <v>1.029536293385682</v>
+        <v>1.025995715707935</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04635640658107</v>
+        <v>1.046718992647667</v>
       </c>
       <c r="J8">
-        <v>1.033114251437873</v>
+        <v>1.021347531675619</v>
       </c>
       <c r="K8">
-        <v>1.036702280846054</v>
+        <v>1.031340044993882</v>
       </c>
       <c r="L8">
-        <v>1.032975452413992</v>
+        <v>1.02982558930171</v>
       </c>
       <c r="M8">
-        <v>1.04033050490137</v>
+        <v>1.036834705660622</v>
       </c>
       <c r="N8">
-        <v>1.014780461490534</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010965346868608</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.037724583795764</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.033253398114011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001380681347747</v>
+        <v>0.9885660265674636</v>
       </c>
       <c r="D9">
-        <v>1.018421566723118</v>
+        <v>1.013007013080005</v>
       </c>
       <c r="E9">
-        <v>1.01080725617194</v>
+        <v>1.009774795476478</v>
       </c>
       <c r="F9">
-        <v>1.017889148053746</v>
+        <v>1.017367855806816</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043135894999801</v>
+        <v>1.044050241175265</v>
       </c>
       <c r="J9">
-        <v>1.0268847782284</v>
+        <v>1.014529110904303</v>
       </c>
       <c r="K9">
-        <v>1.031222673517664</v>
+        <v>1.025892527460198</v>
       </c>
       <c r="L9">
-        <v>1.023727393276515</v>
+        <v>1.022711249438796</v>
       </c>
       <c r="M9">
-        <v>1.030698503875614</v>
+        <v>1.03018529895705</v>
       </c>
       <c r="N9">
-        <v>1.012674518480276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008663750416651</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.032461984321193</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.029398361863683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9940518032508151</v>
+        <v>0.9808056179999253</v>
       </c>
       <c r="D10">
-        <v>1.013230966634159</v>
+        <v>1.007865352838762</v>
       </c>
       <c r="E10">
-        <v>1.002949821125792</v>
+        <v>1.003686844755661</v>
       </c>
       <c r="F10">
-        <v>1.009767288054698</v>
+        <v>1.011624601651891</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040836282990706</v>
+        <v>1.042129077404251</v>
       </c>
       <c r="J10">
-        <v>1.022503422889466</v>
+        <v>1.009802037698674</v>
       </c>
       <c r="K10">
-        <v>1.027365371612419</v>
+        <v>1.022094033361826</v>
       </c>
       <c r="L10">
-        <v>1.017266019112596</v>
+        <v>1.017989849628413</v>
       </c>
       <c r="M10">
-        <v>1.023962402375374</v>
+        <v>1.025787095087426</v>
       </c>
       <c r="N10">
-        <v>1.011192839505904</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007078395831318</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.029033087517922</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.026729517934543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9907861155202037</v>
+        <v>0.9780958471950444</v>
       </c>
       <c r="D11">
-        <v>1.010923762829482</v>
+        <v>1.006105983614983</v>
       </c>
       <c r="E11">
-        <v>0.9994585492499376</v>
+        <v>1.002962289122434</v>
       </c>
       <c r="F11">
-        <v>1.006156591676226</v>
+        <v>1.011057718466231</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039801668110814</v>
+        <v>1.041522855302439</v>
       </c>
       <c r="J11">
-        <v>1.020547290728752</v>
+        <v>1.008409134262366</v>
       </c>
       <c r="K11">
-        <v>1.025642571944667</v>
+        <v>1.020913661428422</v>
       </c>
       <c r="L11">
-        <v>1.014390683767692</v>
+        <v>1.017828556398496</v>
       </c>
       <c r="M11">
-        <v>1.020963330205538</v>
+        <v>1.025774072397048</v>
       </c>
       <c r="N11">
-        <v>1.010531251392402</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.006682155666655</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.029463576351047</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.025928162875786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9895584598752718</v>
+        <v>0.9773623144592178</v>
       </c>
       <c r="D12">
-        <v>1.010057351504319</v>
+        <v>1.005640420599738</v>
       </c>
       <c r="E12">
-        <v>0.9981475622969164</v>
+        <v>1.003434378076854</v>
       </c>
       <c r="F12">
-        <v>1.004800470654449</v>
+        <v>1.011583170973035</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039411281019501</v>
+        <v>1.041391008604514</v>
       </c>
       <c r="J12">
-        <v>1.019811393996806</v>
+        <v>1.008156632385792</v>
       </c>
       <c r="K12">
-        <v>1.024994372206211</v>
+        <v>1.020660351032517</v>
       </c>
       <c r="L12">
-        <v>1.013310338350385</v>
+        <v>1.018496075286649</v>
       </c>
       <c r="M12">
-        <v>1.019836275513891</v>
+        <v>1.026491770160381</v>
       </c>
       <c r="N12">
-        <v>1.010282356691346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.006650091306962</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.030360532288103</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.025749060065668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9898224714765131</v>
+        <v>0.9781138863670575</v>
       </c>
       <c r="D13">
-        <v>1.010243633256221</v>
+        <v>1.006153969072922</v>
       </c>
       <c r="E13">
-        <v>0.9984294284547103</v>
+        <v>1.00486650763893</v>
       </c>
       <c r="F13">
-        <v>1.005092053849691</v>
+        <v>1.012999458319984</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039495299875083</v>
+        <v>1.04162840964975</v>
       </c>
       <c r="J13">
-        <v>1.019969674724247</v>
+        <v>1.008778153557414</v>
       </c>
       <c r="K13">
-        <v>1.025133794092774</v>
+        <v>1.0211205697319</v>
       </c>
       <c r="L13">
-        <v>1.013542644839133</v>
+        <v>1.019857340453073</v>
       </c>
       <c r="M13">
-        <v>1.020078635651196</v>
+        <v>1.027838563766905</v>
       </c>
       <c r="N13">
-        <v>1.010335890499626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.006904597017537</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.031704053861877</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.026071934113025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9906849403358106</v>
+        <v>0.9793077691666329</v>
       </c>
       <c r="D14">
-        <v>1.010852339753476</v>
+        <v>1.006954841032927</v>
       </c>
       <c r="E14">
-        <v>0.9993504766745799</v>
+        <v>1.006287791354056</v>
       </c>
       <c r="F14">
-        <v>1.006044804311509</v>
+        <v>1.014381178030368</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03976952420782</v>
+        <v>1.041960460451585</v>
       </c>
       <c r="J14">
-        <v>1.020486653701478</v>
+        <v>1.009604370254725</v>
       </c>
       <c r="K14">
-        <v>1.025589162646851</v>
+        <v>1.021763578764933</v>
       </c>
       <c r="L14">
-        <v>1.014301637414806</v>
+        <v>1.021108909998197</v>
       </c>
       <c r="M14">
-        <v>1.020870438287938</v>
+        <v>1.029053508704193</v>
       </c>
       <c r="N14">
-        <v>1.010510742841561</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007211153817049</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.032838736496068</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.026528014848865</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.991214372567693</v>
+        <v>0.9799261036793657</v>
       </c>
       <c r="D15">
-        <v>1.01122612251138</v>
+        <v>1.007367925382092</v>
       </c>
       <c r="E15">
-        <v>0.9999160616047458</v>
+        <v>1.006865347413137</v>
       </c>
       <c r="F15">
-        <v>1.006629818342158</v>
+        <v>1.01493669618316</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039937668896989</v>
+        <v>1.042124242798731</v>
       </c>
       <c r="J15">
-        <v>1.020803935145022</v>
+        <v>1.010002192929133</v>
       </c>
       <c r="K15">
-        <v>1.025868621924141</v>
+        <v>1.022081055249606</v>
       </c>
       <c r="L15">
-        <v>1.014767624644426</v>
+        <v>1.021587729697148</v>
       </c>
       <c r="M15">
-        <v>1.021356540838768</v>
+        <v>1.029511926138988</v>
       </c>
       <c r="N15">
-        <v>1.01061805303617</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007351484483457</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.033238785002825</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.026758425754653</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.994266527881512</v>
+        <v>0.9830663499590475</v>
       </c>
       <c r="D16">
-        <v>1.013382793659501</v>
+        <v>1.009446265916957</v>
       </c>
       <c r="E16">
-        <v>1.00317958349541</v>
+        <v>1.00916158263753</v>
       </c>
       <c r="F16">
-        <v>1.010004869564179</v>
+        <v>1.017118422475024</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040904107504319</v>
+        <v>1.042909620480643</v>
       </c>
       <c r="J16">
-        <v>1.022631965388194</v>
+        <v>1.011889315134739</v>
       </c>
       <c r="K16">
-        <v>1.02747856903348</v>
+        <v>1.023610851268779</v>
       </c>
       <c r="L16">
-        <v>1.01745515620085</v>
+        <v>1.023331171193437</v>
       </c>
       <c r="M16">
-        <v>1.024159648283322</v>
+        <v>1.031149536472127</v>
       </c>
       <c r="N16">
-        <v>1.011236313175933</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.007976266276956</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.034494246578676</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.027843266243178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9961558393522999</v>
+        <v>0.9848519195886812</v>
       </c>
       <c r="D17">
-        <v>1.014719339171508</v>
+        <v>1.010623210858704</v>
       </c>
       <c r="E17">
-        <v>1.005202336653662</v>
+        <v>1.010183522929622</v>
       </c>
       <c r="F17">
-        <v>1.012096239668879</v>
+        <v>1.018066912469155</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041499754921691</v>
+        <v>1.043335361365113</v>
       </c>
       <c r="J17">
-        <v>1.023762548741262</v>
+        <v>1.012904925157638</v>
       </c>
       <c r="K17">
-        <v>1.028474115031598</v>
+        <v>1.024447505715361</v>
       </c>
       <c r="L17">
-        <v>1.01911976080566</v>
+        <v>1.024015323400722</v>
       </c>
       <c r="M17">
-        <v>1.025895450803402</v>
+        <v>1.031765409122736</v>
       </c>
       <c r="N17">
-        <v>1.011618674692188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008295395336479</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.034851396688829</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.028437435627457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9972489987293754</v>
+        <v>0.9856297429754604</v>
       </c>
       <c r="D18">
-        <v>1.015493201385257</v>
+        <v>1.011122574147633</v>
       </c>
       <c r="E18">
-        <v>1.006373649559134</v>
+        <v>1.010119256230915</v>
       </c>
       <c r="F18">
-        <v>1.01330710276682</v>
+        <v>1.017952933084428</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041843453303337</v>
+        <v>1.043487955496903</v>
       </c>
       <c r="J18">
-        <v>1.024416339957671</v>
+        <v>1.013246853883506</v>
       </c>
       <c r="K18">
-        <v>1.029049755577437</v>
+        <v>1.024752040182157</v>
       </c>
       <c r="L18">
-        <v>1.020083265024029</v>
+        <v>1.023765574678351</v>
       </c>
       <c r="M18">
-        <v>1.02690002468614</v>
+        <v>1.031468807694244</v>
       </c>
       <c r="N18">
-        <v>1.011839779212451</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.0083711453761</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.034377906175334</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.028640996383706</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9976202604020096</v>
+        <v>0.9855084361227862</v>
       </c>
       <c r="D19">
-        <v>1.015756111069159</v>
+        <v>1.011025577606654</v>
       </c>
       <c r="E19">
-        <v>1.006771614669041</v>
+        <v>1.009064131148419</v>
       </c>
       <c r="F19">
-        <v>1.013718474256506</v>
+        <v>1.016864914912403</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041960019617927</v>
+        <v>1.043404525615947</v>
       </c>
       <c r="J19">
-        <v>1.024638318917451</v>
+        <v>1.012992419497335</v>
       </c>
       <c r="K19">
-        <v>1.029245189532813</v>
+        <v>1.024593133434868</v>
       </c>
       <c r="L19">
-        <v>1.020410554169268</v>
+        <v>1.022664504651789</v>
       </c>
       <c r="M19">
-        <v>1.027241240570579</v>
+        <v>1.030335734696644</v>
       </c>
       <c r="N19">
-        <v>1.01191484862686</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.0082374428519</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.033154198376899</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.02853510405173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9959540543268757</v>
+        <v>0.9828505029965402</v>
       </c>
       <c r="D20">
-        <v>1.014576535532126</v>
+        <v>1.009232824419554</v>
       </c>
       <c r="E20">
-        <v>1.004986201805034</v>
+        <v>1.00529160559395</v>
       </c>
       <c r="F20">
-        <v>1.01187279202651</v>
+        <v>1.013133532804506</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041436235399289</v>
+        <v>1.04265019507337</v>
       </c>
       <c r="J20">
-        <v>1.023641836268491</v>
+        <v>1.011058899716943</v>
       </c>
       <c r="K20">
-        <v>1.028367826802929</v>
+        <v>1.02311524557081</v>
       </c>
       <c r="L20">
-        <v>1.018941937859243</v>
+        <v>1.019242042319855</v>
       </c>
       <c r="M20">
-        <v>1.025710036668549</v>
+        <v>1.026949310237039</v>
       </c>
       <c r="N20">
-        <v>1.011577850579463</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007508819584036</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.029942198880355</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.027494129313119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9904313752370693</v>
+        <v>0.9768441562193222</v>
       </c>
       <c r="D21">
-        <v>1.010673354504936</v>
+        <v>1.005250387933346</v>
       </c>
       <c r="E21">
-        <v>0.9990796489733993</v>
+        <v>1.000348240580542</v>
       </c>
       <c r="F21">
-        <v>1.005764662758418</v>
+        <v>1.008445731021602</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039688942015158</v>
+        <v>1.041120520032144</v>
       </c>
       <c r="J21">
-        <v>1.020334676768316</v>
+        <v>1.007342962302317</v>
       </c>
       <c r="K21">
-        <v>1.02545529956786</v>
+        <v>1.020132968188549</v>
       </c>
       <c r="L21">
-        <v>1.014078478690636</v>
+        <v>1.015323018439776</v>
       </c>
       <c r="M21">
-        <v>1.020637638716653</v>
+        <v>1.023268843786559</v>
       </c>
       <c r="N21">
-        <v>1.010459341395799</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006248980682009</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.026987990288427</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.025388783033446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9868739544794681</v>
+        <v>0.9730032582068389</v>
       </c>
       <c r="D22">
-        <v>1.008164560641092</v>
+        <v>1.00270451213259</v>
       </c>
       <c r="E22">
-        <v>0.9952835187308721</v>
+        <v>0.9972908825319189</v>
       </c>
       <c r="F22">
-        <v>1.001837293532673</v>
+        <v>1.005557352835975</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038555008302769</v>
+        <v>1.040128695942168</v>
       </c>
       <c r="J22">
-        <v>1.018201272727795</v>
+        <v>1.004975859554165</v>
       </c>
       <c r="K22">
-        <v>1.023575992763545</v>
+        <v>1.018222581827656</v>
       </c>
       <c r="L22">
-        <v>1.010948992663596</v>
+        <v>1.012916199286578</v>
       </c>
       <c r="M22">
-        <v>1.017372440935093</v>
+        <v>1.021019515573387</v>
       </c>
       <c r="N22">
-        <v>1.009737777620915</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.005447034325447</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.025207761293677</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.024024349865297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9887681506447135</v>
+        <v>0.9750405743772191</v>
       </c>
       <c r="D23">
-        <v>1.009499865121678</v>
+        <v>1.00404971900355</v>
       </c>
       <c r="E23">
-        <v>0.9973040200412107</v>
+        <v>0.9989105449519421</v>
       </c>
       <c r="F23">
-        <v>1.003927805788113</v>
+        <v>1.007089920807636</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039159564634601</v>
+        <v>1.04065308805797</v>
       </c>
       <c r="J23">
-        <v>1.019337510854535</v>
+        <v>1.006228808483124</v>
       </c>
       <c r="K23">
-        <v>1.02457694027068</v>
+        <v>1.019230412493118</v>
       </c>
       <c r="L23">
-        <v>1.012615019958824</v>
+        <v>1.014190302392024</v>
       </c>
       <c r="M23">
-        <v>1.019110833933897</v>
+        <v>1.022212633020771</v>
       </c>
       <c r="N23">
-        <v>1.010122079222246</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.005868243909248</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.026152053709559</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.024727181239441</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9960452595681538</v>
+        <v>0.9828637193144397</v>
       </c>
       <c r="D24">
-        <v>1.014641080000309</v>
+        <v>1.009231266474107</v>
       </c>
       <c r="E24">
-        <v>1.005083890124867</v>
+        <v>1.005170156697579</v>
       </c>
       <c r="F24">
-        <v>1.01197378614197</v>
+        <v>1.013009350743317</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041464948654429</v>
+        <v>1.042641120466699</v>
       </c>
       <c r="J24">
-        <v>1.023696398494516</v>
+        <v>1.011037756206665</v>
       </c>
       <c r="K24">
-        <v>1.028415869440099</v>
+        <v>1.023098187157907</v>
       </c>
       <c r="L24">
-        <v>1.019022311310945</v>
+        <v>1.019107082878467</v>
       </c>
       <c r="M24">
-        <v>1.025793841667407</v>
+        <v>1.026811795373425</v>
       </c>
       <c r="N24">
-        <v>1.01159630316307</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007490647890211</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.029792047096693</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.027454351324437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00414531305549</v>
+        <v>0.9915375231897041</v>
       </c>
       <c r="D25">
-        <v>1.020384060414266</v>
+        <v>1.014989411984341</v>
       </c>
       <c r="E25">
-        <v>1.013779989457647</v>
+        <v>1.012186669567605</v>
       </c>
       <c r="F25">
-        <v>1.020960241396544</v>
+        <v>1.019645819986014</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043994523877935</v>
+        <v>1.044780151832297</v>
       </c>
       <c r="J25">
-        <v>1.028533971705669</v>
+        <v>1.01635307868882</v>
       </c>
       <c r="K25">
-        <v>1.032673971540929</v>
+        <v>1.027359409060071</v>
       </c>
       <c r="L25">
-        <v>1.026168089783269</v>
+        <v>1.024598703591621</v>
       </c>
       <c r="M25">
-        <v>1.033241662393144</v>
+        <v>1.031946627032973</v>
       </c>
       <c r="N25">
-        <v>1.013232152588817</v>
+        <v>1.009284350270269</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.033855971789535</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.030464417191026</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_7/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9981335419299531</v>
+        <v>0.9985665724779399</v>
       </c>
       <c r="D2">
-        <v>1.019360281058686</v>
+        <v>1.019423831859506</v>
       </c>
       <c r="E2">
-        <v>1.01758306295209</v>
+        <v>1.017734759879048</v>
       </c>
       <c r="F2">
-        <v>1.024756017193477</v>
+        <v>1.024911777499836</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.0463418178741</v>
+        <v>1.046374077203329</v>
       </c>
       <c r="J2">
-        <v>1.020370222111506</v>
+        <v>1.020790241807619</v>
       </c>
       <c r="K2">
-        <v>1.030556327832224</v>
+        <v>1.030619035050983</v>
       </c>
       <c r="L2">
-        <v>1.028802754346472</v>
+        <v>1.028952429006602</v>
       </c>
       <c r="M2">
-        <v>1.035880907290502</v>
+        <v>1.036034627438675</v>
       </c>
       <c r="N2">
-        <v>1.010632021489544</v>
+        <v>1.012671123888709</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.036969713015114</v>
+        <v>1.037091372795071</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.032676156240014</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.032729338535391</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.0202852522275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002780931195178</v>
+        <v>1.002909923272906</v>
       </c>
       <c r="D3">
-        <v>1.022450715197919</v>
+        <v>1.022194033589232</v>
       </c>
       <c r="E3">
-        <v>1.021415204549974</v>
+        <v>1.021477266844578</v>
       </c>
       <c r="F3">
-        <v>1.028382177759848</v>
+        <v>1.028433278631898</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047414695304891</v>
+        <v>1.047284260041399</v>
       </c>
       <c r="J3">
-        <v>1.023196071242974</v>
+        <v>1.023321573961917</v>
       </c>
       <c r="K3">
-        <v>1.032804172885708</v>
+        <v>1.03255059977934</v>
       </c>
       <c r="L3">
-        <v>1.031781214505441</v>
+        <v>1.031842523601825</v>
       </c>
       <c r="M3">
-        <v>1.038664339428786</v>
+        <v>1.038714830500376</v>
       </c>
       <c r="N3">
-        <v>1.011584965358258</v>
+        <v>1.01334799817277</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.03917262038709</v>
+        <v>1.039212580757579</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.034262920565721</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.034092178776944</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020694234386828</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005720067582998</v>
+        <v>1.005659294523273</v>
       </c>
       <c r="D4">
-        <v>1.024406211227935</v>
+        <v>1.023948687184468</v>
       </c>
       <c r="E4">
-        <v>1.023852705023001</v>
+        <v>1.023859347894537</v>
       </c>
       <c r="F4">
-        <v>1.030688815536573</v>
+        <v>1.030674788195338</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.04807767839649</v>
+        <v>1.047845019554303</v>
       </c>
       <c r="J4">
-        <v>1.024978576657943</v>
+        <v>1.024919334527439</v>
       </c>
       <c r="K4">
-        <v>1.034218734896383</v>
+        <v>1.033766415767804</v>
       </c>
       <c r="L4">
-        <v>1.033671526252923</v>
+        <v>1.033678093494864</v>
       </c>
       <c r="M4">
-        <v>1.040430442145202</v>
+        <v>1.040416571912408</v>
       </c>
       <c r="N4">
-        <v>1.012186231354244</v>
+        <v>1.013775442671228</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.040570373494126</v>
+        <v>1.040559396135829</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.035264055019512</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.034952858925326</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02094890778065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006943269278181</v>
+        <v>1.006804081059471</v>
       </c>
       <c r="D5">
-        <v>1.025222066312108</v>
+        <v>1.024681414734451</v>
       </c>
       <c r="E5">
-        <v>1.0248696902547</v>
+        <v>1.024853424666887</v>
       </c>
       <c r="F5">
-        <v>1.031650771292072</v>
+        <v>1.031609828478995</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048351115452597</v>
+        <v>1.048076102898848</v>
       </c>
       <c r="J5">
-        <v>1.02572047680929</v>
+        <v>1.02558468848657</v>
       </c>
       <c r="K5">
-        <v>1.034808107625659</v>
+        <v>1.034273442106923</v>
       </c>
       <c r="L5">
-        <v>1.03445963217167</v>
+        <v>1.034443546714334</v>
       </c>
       <c r="M5">
-        <v>1.041166224677639</v>
+        <v>1.04112572800458</v>
       </c>
       <c r="N5">
-        <v>1.012437391194082</v>
+        <v>1.01395409504764</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.041152695743917</v>
+        <v>1.041120645370692</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.035688009751547</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.035319296533217</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021054888073043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007151748700191</v>
+        <v>1.006999223998192</v>
       </c>
       <c r="D6">
-        <v>1.025363364262467</v>
+        <v>1.024808658027579</v>
       </c>
       <c r="E6">
-        <v>1.025042329755585</v>
+        <v>1.025022013214534</v>
       </c>
       <c r="F6">
-        <v>1.031813498376254</v>
+        <v>1.03176792156004</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048399096394116</v>
+        <v>1.048116920483836</v>
       </c>
       <c r="J6">
-        <v>1.025848334656705</v>
+        <v>1.025699516160169</v>
       </c>
       <c r="K6">
-        <v>1.034911379839309</v>
+        <v>1.034362787000697</v>
       </c>
       <c r="L6">
-        <v>1.034593882450314</v>
+        <v>1.034573789845969</v>
       </c>
       <c r="M6">
-        <v>1.041291019385901</v>
+        <v>1.041245936892834</v>
       </c>
       <c r="N6">
-        <v>1.012481734833276</v>
+        <v>1.013985663336791</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.041251462292186</v>
+        <v>1.041215782557883</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.035769827605627</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.03539213513771</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02107406626022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005747154259956</v>
+        <v>1.005695764144589</v>
       </c>
       <c r="D7">
-        <v>1.02443023187364</v>
+        <v>1.023978714230435</v>
       </c>
       <c r="E7">
-        <v>1.023872966716247</v>
+        <v>1.023883598801905</v>
       </c>
       <c r="F7">
-        <v>1.030706377728879</v>
+        <v>1.030695866622034</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048088011765839</v>
+        <v>1.047858406261646</v>
       </c>
       <c r="J7">
-        <v>1.024998943758494</v>
+        <v>1.024948847623734</v>
       </c>
       <c r="K7">
-        <v>1.034239576856456</v>
+        <v>1.033793193748179</v>
       </c>
       <c r="L7">
-        <v>1.033688649572951</v>
+        <v>1.033699160658425</v>
       </c>
       <c r="M7">
-        <v>1.040444925696233</v>
+        <v>1.04043453227077</v>
       </c>
       <c r="N7">
-        <v>1.012196008525674</v>
+        <v>1.013811992764624</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.040581836252463</v>
+        <v>1.040573610553955</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.035299025744093</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.034994025319989</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020956710367499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.999731539070692</v>
+        <v>1.000093566334828</v>
       </c>
       <c r="D8">
-        <v>1.020429877190502</v>
+        <v>1.020406631493214</v>
       </c>
       <c r="E8">
-        <v>1.018895629969502</v>
+        <v>1.019031349878468</v>
       </c>
       <c r="F8">
-        <v>1.025995715707935</v>
+        <v>1.026128250351119</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046718992647667</v>
+        <v>1.046707188518148</v>
       </c>
       <c r="J8">
-        <v>1.021347531675619</v>
+        <v>1.021699054779962</v>
       </c>
       <c r="K8">
-        <v>1.031340044993882</v>
+        <v>1.031317098606801</v>
       </c>
       <c r="L8">
-        <v>1.02982558930171</v>
+        <v>1.029959555440745</v>
       </c>
       <c r="M8">
-        <v>1.036834705660622</v>
+        <v>1.036965557158887</v>
       </c>
       <c r="N8">
-        <v>1.010965346868608</v>
+        <v>1.012997864086758</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.037724583795764</v>
+        <v>1.03782814437657</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.033253398114011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.033248275754893</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020437642745229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9885660265674636</v>
+        <v>0.9896799218484427</v>
       </c>
       <c r="D9">
-        <v>1.013007013080005</v>
+        <v>1.013767024879789</v>
       </c>
       <c r="E9">
-        <v>1.009774795476478</v>
+        <v>1.010137769114211</v>
       </c>
       <c r="F9">
-        <v>1.017367855806816</v>
+        <v>1.017761072188982</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044050241175265</v>
+        <v>1.044435234022345</v>
       </c>
       <c r="J9">
-        <v>1.014529110904303</v>
+        <v>1.015602447013565</v>
       </c>
       <c r="K9">
-        <v>1.025892527460198</v>
+        <v>1.026640621845424</v>
       </c>
       <c r="L9">
-        <v>1.022711249438796</v>
+        <v>1.02306848182637</v>
       </c>
       <c r="M9">
-        <v>1.03018529895705</v>
+        <v>1.030572413999191</v>
       </c>
       <c r="N9">
-        <v>1.008663750416651</v>
+        <v>1.011376744065551</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.032461984321193</v>
+        <v>1.032768363321985</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.029398361863683</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.029938172048827</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019430544533506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9808056179999253</v>
+        <v>0.982507409936537</v>
       </c>
       <c r="D10">
-        <v>1.007865352838762</v>
+        <v>1.009213362424347</v>
       </c>
       <c r="E10">
-        <v>1.003686844755661</v>
+        <v>1.004237430070908</v>
       </c>
       <c r="F10">
-        <v>1.011624601651891</v>
+        <v>1.012224115903069</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042129077404251</v>
+        <v>1.042810843638603</v>
       </c>
       <c r="J10">
-        <v>1.009802037698674</v>
+        <v>1.011432666263625</v>
       </c>
       <c r="K10">
-        <v>1.022094033361826</v>
+        <v>1.023418235742288</v>
       </c>
       <c r="L10">
-        <v>1.017989849628413</v>
+        <v>1.018530595582496</v>
       </c>
       <c r="M10">
-        <v>1.025787095087426</v>
+        <v>1.026376112889623</v>
       </c>
       <c r="N10">
-        <v>1.007078395831318</v>
+        <v>1.010389942955146</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.029033087517922</v>
+        <v>1.029499233310815</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.026729517934543</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.027678372453253</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018729611973717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9780958471950444</v>
+        <v>0.980073824999012</v>
       </c>
       <c r="D11">
-        <v>1.006105983614983</v>
+        <v>1.007704415967502</v>
       </c>
       <c r="E11">
-        <v>1.002962289122434</v>
+        <v>1.003586672785266</v>
       </c>
       <c r="F11">
-        <v>1.011057718466231</v>
+        <v>1.011746463216173</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041522855302439</v>
+        <v>1.042330743459811</v>
       </c>
       <c r="J11">
-        <v>1.008409134262366</v>
+        <v>1.010299710916239</v>
       </c>
       <c r="K11">
-        <v>1.020913661428422</v>
+        <v>1.022482486324804</v>
       </c>
       <c r="L11">
-        <v>1.017828556398496</v>
+        <v>1.01844126521129</v>
       </c>
       <c r="M11">
-        <v>1.025774072397048</v>
+        <v>1.026450206964502</v>
       </c>
       <c r="N11">
-        <v>1.006682155666655</v>
+        <v>1.010370433400486</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.029463576351047</v>
+        <v>1.029998391043977</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.025928162875786</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.027053180556988</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018557294990194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9773623144592178</v>
+        <v>0.979427035444146</v>
       </c>
       <c r="D12">
-        <v>1.005640420599738</v>
+        <v>1.007312563173696</v>
       </c>
       <c r="E12">
-        <v>1.003434378076854</v>
+        <v>1.004068274815582</v>
       </c>
       <c r="F12">
-        <v>1.011583170973035</v>
+        <v>1.012294642448506</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041391008604514</v>
+        <v>1.042235953877055</v>
       </c>
       <c r="J12">
-        <v>1.008156632385792</v>
+        <v>1.010128341987721</v>
       </c>
       <c r="K12">
-        <v>1.020660351032517</v>
+        <v>1.022300994293981</v>
       </c>
       <c r="L12">
-        <v>1.018496075286649</v>
+        <v>1.019117945956141</v>
       </c>
       <c r="M12">
-        <v>1.026491770160381</v>
+        <v>1.027190027220002</v>
       </c>
       <c r="N12">
-        <v>1.006650091306962</v>
+        <v>1.010462376753223</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.030360532288103</v>
+        <v>1.030912655395443</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.025749060065668</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.026924859960201</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018538217251498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9781138863670575</v>
+        <v>0.9801065044644763</v>
       </c>
       <c r="D13">
-        <v>1.006153969072922</v>
+        <v>1.007756281153163</v>
       </c>
       <c r="E13">
-        <v>1.00486650763893</v>
+        <v>1.005455768233559</v>
       </c>
       <c r="F13">
-        <v>1.012999458319984</v>
+        <v>1.013678454082147</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04162840964975</v>
+        <v>1.042438124071836</v>
       </c>
       <c r="J13">
-        <v>1.008778153557414</v>
+        <v>1.010681525785454</v>
       </c>
       <c r="K13">
-        <v>1.0211205697319</v>
+        <v>1.022692836536777</v>
       </c>
       <c r="L13">
-        <v>1.019857340453073</v>
+        <v>1.02043550012732</v>
       </c>
       <c r="M13">
-        <v>1.027838563766905</v>
+        <v>1.02850503575846</v>
       </c>
       <c r="N13">
-        <v>1.006904597017537</v>
+        <v>1.010613831785756</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.031704053861877</v>
+        <v>1.032230909982668</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.026071934113025</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.027199141221308</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018639705294266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9793077691666329</v>
+        <v>0.9811787728128879</v>
       </c>
       <c r="D14">
-        <v>1.006954841032927</v>
+        <v>1.008444253660219</v>
       </c>
       <c r="E14">
-        <v>1.006287791354056</v>
+        <v>1.006824377253084</v>
       </c>
       <c r="F14">
-        <v>1.014381178030368</v>
+        <v>1.015013714805146</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041960460451585</v>
+        <v>1.042713261052752</v>
       </c>
       <c r="J14">
-        <v>1.009604370254725</v>
+        <v>1.011392860434971</v>
       </c>
       <c r="K14">
-        <v>1.021763578764933</v>
+        <v>1.023225423899898</v>
       </c>
       <c r="L14">
-        <v>1.021108909998197</v>
+        <v>1.021635534801779</v>
       </c>
       <c r="M14">
-        <v>1.029053508704193</v>
+        <v>1.029674547043573</v>
       </c>
       <c r="N14">
-        <v>1.007211153817049</v>
+        <v>1.010747560030753</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.032838736496068</v>
+        <v>1.033329609986531</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.026528014848865</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.027577276874078</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018765296574743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9799261036793657</v>
+        <v>0.9817334911957798</v>
       </c>
       <c r="D15">
-        <v>1.007367925382092</v>
+        <v>1.008799020921107</v>
       </c>
       <c r="E15">
-        <v>1.006865347413137</v>
+        <v>1.007378541262538</v>
       </c>
       <c r="F15">
-        <v>1.01493669618316</v>
+        <v>1.015546361932049</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042124242798731</v>
+        <v>1.042847647801138</v>
       </c>
       <c r="J15">
-        <v>1.010002192929133</v>
+        <v>1.011730606443844</v>
       </c>
       <c r="K15">
-        <v>1.022081055249606</v>
+        <v>1.023485870213181</v>
       </c>
       <c r="L15">
-        <v>1.021587729697148</v>
+        <v>1.022091475822338</v>
       </c>
       <c r="M15">
-        <v>1.029511926138988</v>
+        <v>1.03011060029357</v>
       </c>
       <c r="N15">
-        <v>1.007351484483457</v>
+        <v>1.010798733955462</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.033238785002825</v>
+        <v>1.033711969221467</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.026758425754653</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.027767927296699</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018824229473027</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9830663499590475</v>
+        <v>0.9845600908954614</v>
       </c>
       <c r="D16">
-        <v>1.009446265916957</v>
+        <v>1.010589057234364</v>
       </c>
       <c r="E16">
-        <v>1.00916158263753</v>
+        <v>1.009576413019754</v>
       </c>
       <c r="F16">
-        <v>1.017118422475024</v>
+        <v>1.017620714900077</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042909620480643</v>
+        <v>1.043487655566353</v>
       </c>
       <c r="J16">
-        <v>1.011889315134739</v>
+        <v>1.013321181219167</v>
       </c>
       <c r="K16">
-        <v>1.023610851268779</v>
+        <v>1.024733595202695</v>
       </c>
       <c r="L16">
-        <v>1.023331171193437</v>
+        <v>1.023738712302024</v>
       </c>
       <c r="M16">
-        <v>1.031149536472127</v>
+        <v>1.031643181345927</v>
       </c>
       <c r="N16">
-        <v>1.007976266276956</v>
+        <v>1.011004287231811</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.034494246578676</v>
+        <v>1.034884428440286</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027843266243178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.028653617682519</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019093998912326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9848519195886812</v>
+        <v>0.9861825899571451</v>
       </c>
       <c r="D17">
-        <v>1.010623210858704</v>
+        <v>1.011612980227411</v>
       </c>
       <c r="E17">
-        <v>1.010183522929622</v>
+        <v>1.01055327547174</v>
       </c>
       <c r="F17">
-        <v>1.018066912469155</v>
+        <v>1.018515048111188</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043335361365113</v>
+        <v>1.043836193766358</v>
       </c>
       <c r="J17">
-        <v>1.012904925157638</v>
+        <v>1.014182305499882</v>
       </c>
       <c r="K17">
-        <v>1.024447505715361</v>
+        <v>1.025420410230912</v>
       </c>
       <c r="L17">
-        <v>1.024015323400722</v>
+        <v>1.024378763583745</v>
       </c>
       <c r="M17">
-        <v>1.031765409122736</v>
+        <v>1.032206046917143</v>
       </c>
       <c r="N17">
-        <v>1.008295395336479</v>
+        <v>1.011122839856758</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.034851396688829</v>
+        <v>1.035199716225669</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.028437435627457</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.029142084577335</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019236472776434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9856297429754604</v>
+        <v>0.9868957025512716</v>
       </c>
       <c r="D18">
-        <v>1.011122574147633</v>
+        <v>1.012050934586446</v>
       </c>
       <c r="E18">
-        <v>1.010119256230915</v>
+        <v>1.010479446442912</v>
       </c>
       <c r="F18">
-        <v>1.017952933084428</v>
+        <v>1.018382295907936</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043487955496903</v>
+        <v>1.043957819535437</v>
       </c>
       <c r="J18">
-        <v>1.013246853883506</v>
+        <v>1.014463082094085</v>
       </c>
       <c r="K18">
-        <v>1.024752040182157</v>
+        <v>1.025664845603333</v>
       </c>
       <c r="L18">
-        <v>1.023765574678351</v>
+        <v>1.024119709924691</v>
       </c>
       <c r="M18">
-        <v>1.031468807694244</v>
+        <v>1.031891095536155</v>
       </c>
       <c r="N18">
-        <v>1.0083711453761</v>
+        <v>1.011130098311428</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.034377906175334</v>
+        <v>1.034711790505604</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.028640996383706</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.029302021463619</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019275503621474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9855084361227862</v>
+        <v>0.9867893807585784</v>
       </c>
       <c r="D19">
-        <v>1.011025577606654</v>
+        <v>1.011969452462748</v>
       </c>
       <c r="E19">
-        <v>1.009064131148419</v>
+        <v>1.009443488237592</v>
       </c>
       <c r="F19">
-        <v>1.016864914912403</v>
+        <v>1.01730445552413</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043404525615947</v>
+        <v>1.04388227352414</v>
       </c>
       <c r="J19">
-        <v>1.012992419497335</v>
+        <v>1.014223323195335</v>
       </c>
       <c r="K19">
-        <v>1.024593133434868</v>
+        <v>1.025521274375624</v>
       </c>
       <c r="L19">
-        <v>1.022664504651789</v>
+        <v>1.023037501756753</v>
       </c>
       <c r="M19">
-        <v>1.030335734696644</v>
+        <v>1.030768051557707</v>
       </c>
       <c r="N19">
-        <v>1.0082374428519</v>
+        <v>1.011023167683736</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.033154198376899</v>
+        <v>1.033496125352007</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.02853510405173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.029207594434656</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019224684496105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9828505029965402</v>
+        <v>0.9843649967962403</v>
       </c>
       <c r="D20">
-        <v>1.009232824419554</v>
+        <v>1.010404323898374</v>
       </c>
       <c r="E20">
-        <v>1.00529160559395</v>
+        <v>1.005774636451269</v>
       </c>
       <c r="F20">
-        <v>1.013133532804506</v>
+        <v>1.013665063105336</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04265019507337</v>
+        <v>1.04324292995331</v>
       </c>
       <c r="J20">
-        <v>1.011058899716943</v>
+        <v>1.012512216398356</v>
       </c>
       <c r="K20">
-        <v>1.02311524557081</v>
+        <v>1.024266660088835</v>
       </c>
       <c r="L20">
-        <v>1.019242042319855</v>
+        <v>1.019716700187675</v>
       </c>
       <c r="M20">
-        <v>1.026949310237039</v>
+        <v>1.027471810586445</v>
       </c>
       <c r="N20">
-        <v>1.007508819584036</v>
+        <v>1.01058048673202</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.029942198880355</v>
+        <v>1.030355707994027</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.027494129313119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.02832488185697</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018916664614652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9768441562193222</v>
+        <v>0.9789712277815619</v>
       </c>
       <c r="D21">
-        <v>1.005250387933346</v>
+        <v>1.006985998335179</v>
       </c>
       <c r="E21">
-        <v>1.000348240580542</v>
+        <v>1.001064824867931</v>
       </c>
       <c r="F21">
-        <v>1.008445731021602</v>
+        <v>1.009202004091286</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041120520032144</v>
+        <v>1.041997655262851</v>
       </c>
       <c r="J21">
-        <v>1.007342962302317</v>
+        <v>1.009375245170675</v>
       </c>
       <c r="K21">
-        <v>1.020132968188549</v>
+        <v>1.021836216626798</v>
       </c>
       <c r="L21">
-        <v>1.015323018439776</v>
+        <v>1.016026051858784</v>
       </c>
       <c r="M21">
-        <v>1.023268843786559</v>
+        <v>1.024011113950996</v>
       </c>
       <c r="N21">
-        <v>1.006248980682009</v>
+        <v>1.010173017271481</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.026987990288427</v>
+        <v>1.027575458394135</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.025388783033446</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.026610054308803</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018385968136463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9730032582068389</v>
+        <v>0.9755223991945876</v>
       </c>
       <c r="D22">
-        <v>1.00270451213259</v>
+        <v>1.004800812240454</v>
       </c>
       <c r="E22">
-        <v>0.9972908825319189</v>
+        <v>0.9981618197237693</v>
       </c>
       <c r="F22">
-        <v>1.005557352835975</v>
+        <v>1.006458397293839</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040128695942168</v>
+        <v>1.041187347554127</v>
       </c>
       <c r="J22">
-        <v>1.004975859554165</v>
+        <v>1.007375843257345</v>
       </c>
       <c r="K22">
-        <v>1.018222581827656</v>
+        <v>1.020277760277978</v>
       </c>
       <c r="L22">
-        <v>1.012916199286578</v>
+        <v>1.013769779487502</v>
       </c>
       <c r="M22">
-        <v>1.021019515573387</v>
+        <v>1.021902988681586</v>
       </c>
       <c r="N22">
-        <v>1.005447034325447</v>
+        <v>1.009906681007793</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.025207761293677</v>
+        <v>1.025906985923458</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.024024349865297</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.025493179865214</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018043313750401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9750405743772191</v>
+        <v>0.9773340512426609</v>
       </c>
       <c r="D23">
-        <v>1.00404971900355</v>
+        <v>1.005942150120524</v>
       </c>
       <c r="E23">
-        <v>0.9989105449519421</v>
+        <v>0.9996898956276692</v>
       </c>
       <c r="F23">
-        <v>1.007089920807636</v>
+        <v>1.007907287610119</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04065308805797</v>
+        <v>1.041609150004397</v>
       </c>
       <c r="J23">
-        <v>1.006228808483124</v>
+        <v>1.008417152851764</v>
       </c>
       <c r="K23">
-        <v>1.019230412493118</v>
+        <v>1.021086698199967</v>
       </c>
       <c r="L23">
-        <v>1.014190302392024</v>
+        <v>1.014954544251926</v>
       </c>
       <c r="M23">
-        <v>1.022212633020771</v>
+        <v>1.023014489391404</v>
       </c>
       <c r="N23">
-        <v>1.005868243909248</v>
+        <v>1.00999941361877</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.026152053709559</v>
+        <v>1.026786681940417</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.024727181239441</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.02605444097397</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018219294814386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9828637193144397</v>
+        <v>0.9843776125122637</v>
       </c>
       <c r="D24">
-        <v>1.009231266474107</v>
+        <v>1.010401983859422</v>
       </c>
       <c r="E24">
-        <v>1.005170156697579</v>
+        <v>1.005656051764548</v>
       </c>
       <c r="F24">
-        <v>1.013009350743317</v>
+        <v>1.013541881463945</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042641120466699</v>
+        <v>1.043233469638438</v>
       </c>
       <c r="J24">
-        <v>1.011037756206665</v>
+        <v>1.01249058510722</v>
       </c>
       <c r="K24">
-        <v>1.023098187157907</v>
+        <v>1.02424885869784</v>
       </c>
       <c r="L24">
-        <v>1.019107082878467</v>
+        <v>1.019584563551282</v>
       </c>
       <c r="M24">
-        <v>1.026811795373425</v>
+        <v>1.027335287919111</v>
       </c>
       <c r="N24">
-        <v>1.007490647890211</v>
+        <v>1.010563454395379</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.029792047096693</v>
+        <v>1.030206362500774</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.027454351324437</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.02828192175011</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018908091692605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9915375231897041</v>
+        <v>0.992434766358666</v>
       </c>
       <c r="D25">
-        <v>1.014989411984341</v>
+        <v>1.015530157003692</v>
       </c>
       <c r="E25">
-        <v>1.012186669567605</v>
+        <v>1.012480249517229</v>
       </c>
       <c r="F25">
-        <v>1.019645819986014</v>
+        <v>1.019962702962069</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044780151832297</v>
+        <v>1.045054243613702</v>
       </c>
       <c r="J25">
-        <v>1.01635307868882</v>
+        <v>1.017219440905956</v>
       </c>
       <c r="K25">
-        <v>1.027359409060071</v>
+        <v>1.02789207767705</v>
       </c>
       <c r="L25">
-        <v>1.024598703591621</v>
+        <v>1.024887866388696</v>
       </c>
       <c r="M25">
-        <v>1.031946627032973</v>
+        <v>1.032258830580104</v>
       </c>
       <c r="N25">
-        <v>1.009284350270269</v>
+        <v>1.011778435660397</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.033855971789535</v>
+        <v>1.03410306222651</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.030464417191026</v>
+        <v>1.030854690808856</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019703787660836</v>
       </c>
     </row>
   </sheetData>
